--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478CEABD-A5BC-48A7-A227-66112149D884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2012,7 +2011,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2342,11 +2341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O581"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="H561" workbookViewId="0">
+      <selection activeCell="O577" sqref="O577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,9 +2404,9 @@
       <c r="F2" t="s">
         <v>615</v>
       </c>
-      <c r="G2" t="str">
-        <f>_xlfn.CONCAT(L2,"-",M2,N2,"-",O2)</f>
-        <v>ДТ-0228-2021</v>
+      <c r="G2" t="e">
+        <f ca="1">_xlfn.CONCAT(L2,"-",M2,N2,"-",O2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="5" t="str">
         <f>IF(RIGHT(B2)="ч","являлся","являлась")</f>
@@ -2448,9 +2447,9 @@
       <c r="F3" t="s">
         <v>615</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="0">_xlfn.CONCAT(L3,"-",M3,N3,"-",O3)</f>
-        <v>ДТ-0229-2021</v>
+      <c r="G3" t="e">
+        <f t="shared" ref="G3:G66" ca="1" si="0">_xlfn.CONCAT(L3,"-",M3,N3,"-",O3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" ref="H3:H66" si="1">IF(RIGHT(B3)="ч","являлся","являлась")</f>
@@ -2492,9 +2491,9 @@
       <c r="F4" t="s">
         <v>615</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0230-2021</v>
+      <c r="G4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H4" s="5" t="str">
         <f>IF(RIGHT(B4)="ч","являлся","являлась")</f>
@@ -2536,9 +2535,9 @@
       <c r="F5" t="s">
         <v>615</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0231-2021</v>
+      <c r="G5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2580,9 +2579,9 @@
       <c r="F6" t="s">
         <v>615</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0232-2021</v>
+      <c r="G6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2624,9 +2623,9 @@
       <c r="F7" t="s">
         <v>615</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0233-2021</v>
+      <c r="G7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2668,9 +2667,9 @@
       <c r="F8" t="s">
         <v>615</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0234-2021</v>
+      <c r="G8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2712,9 +2711,9 @@
       <c r="F9" t="s">
         <v>615</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0235-2021</v>
+      <c r="G9" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2756,9 +2755,9 @@
       <c r="F10" t="s">
         <v>616</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0236-2021</v>
+      <c r="G10" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2800,9 +2799,9 @@
       <c r="F11" t="s">
         <v>616</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0237-2021</v>
+      <c r="G11" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2844,9 +2843,9 @@
       <c r="F12" t="s">
         <v>616</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0238-2021</v>
+      <c r="G12" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2888,9 +2887,9 @@
       <c r="F13" t="s">
         <v>616</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0239-2021</v>
+      <c r="G13" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2932,9 +2931,9 @@
       <c r="F14" t="s">
         <v>616</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0240-2021</v>
+      <c r="G14" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2976,9 +2975,9 @@
       <c r="F15" t="s">
         <v>616</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0241-2021</v>
+      <c r="G15" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3020,9 +3019,9 @@
       <c r="F16" t="s">
         <v>616</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0242-2021</v>
+      <c r="G16" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3064,9 +3063,9 @@
       <c r="F17" t="s">
         <v>616</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0243-2021</v>
+      <c r="G17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3108,9 +3107,9 @@
       <c r="F18" t="s">
         <v>616</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0244-2021</v>
+      <c r="G18" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3152,9 +3151,9 @@
       <c r="F19" t="s">
         <v>616</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0245-2021</v>
+      <c r="G19" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3196,9 +3195,9 @@
       <c r="F20" t="s">
         <v>616</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0246-2021</v>
+      <c r="G20" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3240,9 +3239,9 @@
       <c r="F21" t="s">
         <v>616</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0247-2021</v>
+      <c r="G21" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3284,9 +3283,9 @@
       <c r="F22" t="s">
         <v>616</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0248-2021</v>
+      <c r="G22" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3328,9 +3327,9 @@
       <c r="F23" t="s">
         <v>616</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0249-2021</v>
+      <c r="G23" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3372,9 +3371,9 @@
       <c r="F24" t="s">
         <v>616</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0250-2021</v>
+      <c r="G24" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3416,9 +3415,9 @@
       <c r="F25" t="s">
         <v>616</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0251-2021</v>
+      <c r="G25" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3460,9 +3459,9 @@
       <c r="F26" t="s">
         <v>616</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0252-2021</v>
+      <c r="G26" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3504,9 +3503,9 @@
       <c r="F27" t="s">
         <v>616</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0253-2021</v>
+      <c r="G27" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3548,9 +3547,9 @@
       <c r="F28" t="s">
         <v>616</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0254-2021</v>
+      <c r="G28" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3592,9 +3591,9 @@
       <c r="F29" t="s">
         <v>616</v>
       </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0255-2021</v>
+      <c r="G29" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3636,9 +3635,9 @@
       <c r="F30" t="s">
         <v>617</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0256-2021</v>
+      <c r="G30" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3680,9 +3679,9 @@
       <c r="F31" t="s">
         <v>617</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0257-2021</v>
+      <c r="G31" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3724,9 +3723,9 @@
       <c r="F32" t="s">
         <v>617</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0258-2021</v>
+      <c r="G32" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3768,9 +3767,9 @@
       <c r="F33" t="s">
         <v>617</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0259-2021</v>
+      <c r="G33" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H33" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3812,9 +3811,9 @@
       <c r="F34" t="s">
         <v>617</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0260-2021</v>
+      <c r="G34" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H34" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3856,9 +3855,9 @@
       <c r="F35" t="s">
         <v>617</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0261-2021</v>
+      <c r="G35" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H35" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3900,9 +3899,9 @@
       <c r="F36" t="s">
         <v>617</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0262-2021</v>
+      <c r="G36" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H36" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3944,9 +3943,9 @@
       <c r="F37" t="s">
         <v>617</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0263-2021</v>
+      <c r="G37" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H37" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3988,9 +3987,9 @@
       <c r="F38" t="s">
         <v>617</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0264-2021</v>
+      <c r="G38" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H38" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4032,9 +4031,9 @@
       <c r="F39" t="s">
         <v>617</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0265-2021</v>
+      <c r="G39" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H39" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4076,9 +4075,9 @@
       <c r="F40" t="s">
         <v>617</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0266-2021</v>
+      <c r="G40" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H40" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4120,9 +4119,9 @@
       <c r="F41" t="s">
         <v>617</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0267-2021</v>
+      <c r="G41" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H41" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4164,9 +4163,9 @@
       <c r="F42" t="s">
         <v>617</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0268-2021</v>
+      <c r="G42" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H42" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4208,9 +4207,9 @@
       <c r="F43" t="s">
         <v>617</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0269-2021</v>
+      <c r="G43" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H43" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4252,9 +4251,9 @@
       <c r="F44" t="s">
         <v>617</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0270-2021</v>
+      <c r="G44" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H44" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4296,9 +4295,9 @@
       <c r="F45" t="s">
         <v>617</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0271-2021</v>
+      <c r="G45" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H45" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4340,9 +4339,9 @@
       <c r="F46" t="s">
         <v>617</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0272-2021</v>
+      <c r="G46" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H46" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4384,9 +4383,9 @@
       <c r="F47" t="s">
         <v>617</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0273-2021</v>
+      <c r="G47" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H47" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4428,9 +4427,9 @@
       <c r="F48" t="s">
         <v>617</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0274-2021</v>
+      <c r="G48" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4472,9 +4471,9 @@
       <c r="F49" t="s">
         <v>617</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0275-2021</v>
+      <c r="G49" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H49" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4516,9 +4515,9 @@
       <c r="F50" t="s">
         <v>617</v>
       </c>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0276-2021</v>
+      <c r="G50" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H50" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4560,9 +4559,9 @@
       <c r="F51" t="s">
         <v>617</v>
       </c>
-      <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0277-2021</v>
+      <c r="G51" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H51" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4604,9 +4603,9 @@
       <c r="F52" t="s">
         <v>617</v>
       </c>
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0278-2021</v>
+      <c r="G52" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H52" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4648,9 +4647,9 @@
       <c r="F53" t="s">
         <v>617</v>
       </c>
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0279-2021</v>
+      <c r="G53" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H53" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4692,9 +4691,9 @@
       <c r="F54" t="s">
         <v>617</v>
       </c>
-      <c r="G54" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0280-2021</v>
+      <c r="G54" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H54" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4736,9 +4735,9 @@
       <c r="F55" t="s">
         <v>617</v>
       </c>
-      <c r="G55" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0281-2021</v>
+      <c r="G55" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H55" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4780,9 +4779,9 @@
       <c r="F56" t="s">
         <v>617</v>
       </c>
-      <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0282-2021</v>
+      <c r="G56" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H56" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4824,9 +4823,9 @@
       <c r="F57" t="s">
         <v>617</v>
       </c>
-      <c r="G57" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0283-2021</v>
+      <c r="G57" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H57" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4868,9 +4867,9 @@
       <c r="F58" t="s">
         <v>617</v>
       </c>
-      <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0284-2021</v>
+      <c r="G58" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H58" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4912,9 +4911,9 @@
       <c r="F59" t="s">
         <v>617</v>
       </c>
-      <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0285-2021</v>
+      <c r="G59" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H59" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4956,9 +4955,9 @@
       <c r="F60" t="s">
         <v>617</v>
       </c>
-      <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0286-2021</v>
+      <c r="G60" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H60" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5000,9 +4999,9 @@
       <c r="F61" t="s">
         <v>617</v>
       </c>
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0287-2021</v>
+      <c r="G61" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H61" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5044,9 +5043,9 @@
       <c r="F62" t="s">
         <v>617</v>
       </c>
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0288-2021</v>
+      <c r="G62" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H62" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5088,9 +5087,9 @@
       <c r="F63" t="s">
         <v>617</v>
       </c>
-      <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0289-2021</v>
+      <c r="G63" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H63" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5132,9 +5131,9 @@
       <c r="F64" t="s">
         <v>617</v>
       </c>
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0290-2021</v>
+      <c r="G64" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H64" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5176,9 +5175,9 @@
       <c r="F65" t="s">
         <v>617</v>
       </c>
-      <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0291-2021</v>
+      <c r="G65" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H65" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5220,9 +5219,9 @@
       <c r="F66" t="s">
         <v>617</v>
       </c>
-      <c r="G66" t="str">
-        <f t="shared" si="0"/>
-        <v>ДТ-0292-2021</v>
+      <c r="G66" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="H66" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5264,9 +5263,9 @@
       <c r="F67" t="s">
         <v>617</v>
       </c>
-      <c r="G67" t="str">
-        <f t="shared" ref="G67:G130" si="3">_xlfn.CONCAT(L67,"-",M67,N67,"-",O67)</f>
-        <v>ДТ-0293-2021</v>
+      <c r="G67" t="e">
+        <f t="shared" ref="G67:G130" ca="1" si="3">_xlfn.CONCAT(L67,"-",M67,N67,"-",O67)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H67" s="5" t="str">
         <f t="shared" ref="H67:H130" si="4">IF(RIGHT(B67)="ч","являлся","являлась")</f>
@@ -5308,9 +5307,9 @@
       <c r="F68" t="s">
         <v>617</v>
       </c>
-      <c r="G68" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0294-2021</v>
+      <c r="G68" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H68" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5352,9 +5351,9 @@
       <c r="F69" t="s">
         <v>617</v>
       </c>
-      <c r="G69" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0295-2021</v>
+      <c r="G69" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H69" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5396,9 +5395,9 @@
       <c r="F70" t="s">
         <v>617</v>
       </c>
-      <c r="G70" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0296-2021</v>
+      <c r="G70" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H70" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5440,9 +5439,9 @@
       <c r="F71" t="s">
         <v>617</v>
       </c>
-      <c r="G71" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0297-2021</v>
+      <c r="G71" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H71" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5484,9 +5483,9 @@
       <c r="F72" t="s">
         <v>617</v>
       </c>
-      <c r="G72" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0298-2021</v>
+      <c r="G72" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H72" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5528,9 +5527,9 @@
       <c r="F73" t="s">
         <v>617</v>
       </c>
-      <c r="G73" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0299-2021</v>
+      <c r="G73" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H73" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5572,9 +5571,9 @@
       <c r="F74" t="s">
         <v>617</v>
       </c>
-      <c r="G74" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0300-2021</v>
+      <c r="G74" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H74" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5616,9 +5615,9 @@
       <c r="F75" t="s">
         <v>617</v>
       </c>
-      <c r="G75" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0301-2021</v>
+      <c r="G75" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H75" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5660,9 +5659,9 @@
       <c r="F76" t="s">
         <v>617</v>
       </c>
-      <c r="G76" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0302-2021</v>
+      <c r="G76" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H76" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5704,9 +5703,9 @@
       <c r="F77" t="s">
         <v>617</v>
       </c>
-      <c r="G77" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0303-2021</v>
+      <c r="G77" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H77" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5748,9 +5747,9 @@
       <c r="F78" t="s">
         <v>617</v>
       </c>
-      <c r="G78" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0304-2021</v>
+      <c r="G78" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H78" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5792,9 +5791,9 @@
       <c r="F79" t="s">
         <v>617</v>
       </c>
-      <c r="G79" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0305-2021</v>
+      <c r="G79" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H79" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5836,9 +5835,9 @@
       <c r="F80" t="s">
         <v>617</v>
       </c>
-      <c r="G80" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0306-2021</v>
+      <c r="G80" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H80" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5880,9 +5879,9 @@
       <c r="F81" t="s">
         <v>617</v>
       </c>
-      <c r="G81" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0307-2021</v>
+      <c r="G81" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H81" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5924,9 +5923,9 @@
       <c r="F82" t="s">
         <v>617</v>
       </c>
-      <c r="G82" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0308-2021</v>
+      <c r="G82" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H82" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5968,9 +5967,9 @@
       <c r="F83" t="s">
         <v>617</v>
       </c>
-      <c r="G83" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0309-2021</v>
+      <c r="G83" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H83" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6012,9 +6011,9 @@
       <c r="F84" t="s">
         <v>617</v>
       </c>
-      <c r="G84" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0310-2021</v>
+      <c r="G84" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H84" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6056,9 +6055,9 @@
       <c r="F85" t="s">
         <v>617</v>
       </c>
-      <c r="G85" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0311-2021</v>
+      <c r="G85" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H85" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6100,9 +6099,9 @@
       <c r="F86" t="s">
         <v>617</v>
       </c>
-      <c r="G86" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0312-2021</v>
+      <c r="G86" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H86" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6144,9 +6143,9 @@
       <c r="F87" t="s">
         <v>617</v>
       </c>
-      <c r="G87" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0313-2021</v>
+      <c r="G87" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H87" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6188,9 +6187,9 @@
       <c r="F88" t="s">
         <v>617</v>
       </c>
-      <c r="G88" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0314-2021</v>
+      <c r="G88" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H88" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6232,9 +6231,9 @@
       <c r="F89" t="s">
         <v>617</v>
       </c>
-      <c r="G89" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0315-2021</v>
+      <c r="G89" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H89" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6276,9 +6275,9 @@
       <c r="F90" t="s">
         <v>617</v>
       </c>
-      <c r="G90" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0316-2021</v>
+      <c r="G90" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H90" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6320,9 +6319,9 @@
       <c r="F91" t="s">
         <v>617</v>
       </c>
-      <c r="G91" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0317-2021</v>
+      <c r="G91" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H91" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6364,9 +6363,9 @@
       <c r="F92" t="s">
         <v>617</v>
       </c>
-      <c r="G92" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0318-2021</v>
+      <c r="G92" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H92" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6408,9 +6407,9 @@
       <c r="F93" t="s">
         <v>617</v>
       </c>
-      <c r="G93" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0319-2021</v>
+      <c r="G93" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H93" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6452,9 +6451,9 @@
       <c r="F94" t="s">
         <v>617</v>
       </c>
-      <c r="G94" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0320-2021</v>
+      <c r="G94" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H94" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6496,9 +6495,9 @@
       <c r="F95" t="s">
         <v>617</v>
       </c>
-      <c r="G95" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0321-2021</v>
+      <c r="G95" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H95" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6540,9 +6539,9 @@
       <c r="F96" t="s">
         <v>617</v>
       </c>
-      <c r="G96" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0322-2021</v>
+      <c r="G96" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H96" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6584,9 +6583,9 @@
       <c r="F97" t="s">
         <v>617</v>
       </c>
-      <c r="G97" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0323-2021</v>
+      <c r="G97" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H97" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6628,9 +6627,9 @@
       <c r="F98" t="s">
         <v>617</v>
       </c>
-      <c r="G98" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0324-2021</v>
+      <c r="G98" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H98" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6672,9 +6671,9 @@
       <c r="F99" t="s">
         <v>617</v>
       </c>
-      <c r="G99" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0325-2021</v>
+      <c r="G99" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H99" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6716,9 +6715,9 @@
       <c r="F100" t="s">
         <v>617</v>
       </c>
-      <c r="G100" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0326-2021</v>
+      <c r="G100" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H100" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6760,9 +6759,9 @@
       <c r="F101" t="s">
         <v>617</v>
       </c>
-      <c r="G101" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0327-2021</v>
+      <c r="G101" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H101" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6804,9 +6803,9 @@
       <c r="F102" t="s">
         <v>617</v>
       </c>
-      <c r="G102" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0328-2021</v>
+      <c r="G102" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H102" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6848,9 +6847,9 @@
       <c r="F103" t="s">
         <v>617</v>
       </c>
-      <c r="G103" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0329-2021</v>
+      <c r="G103" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H103" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6892,9 +6891,9 @@
       <c r="F104" t="s">
         <v>617</v>
       </c>
-      <c r="G104" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0330-2021</v>
+      <c r="G104" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H104" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6936,9 +6935,9 @@
       <c r="F105" t="s">
         <v>617</v>
       </c>
-      <c r="G105" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0331-2021</v>
+      <c r="G105" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H105" s="5" t="str">
         <f t="shared" si="4"/>
@@ -6980,9 +6979,9 @@
       <c r="F106" t="s">
         <v>617</v>
       </c>
-      <c r="G106" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0332-2021</v>
+      <c r="G106" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H106" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7024,9 +7023,9 @@
       <c r="F107" t="s">
         <v>617</v>
       </c>
-      <c r="G107" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0333-2021</v>
+      <c r="G107" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H107" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7068,9 +7067,9 @@
       <c r="F108" t="s">
         <v>617</v>
       </c>
-      <c r="G108" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0334-2021</v>
+      <c r="G108" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H108" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7112,9 +7111,9 @@
       <c r="F109" t="s">
         <v>617</v>
       </c>
-      <c r="G109" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0335-2021</v>
+      <c r="G109" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H109" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7156,9 +7155,9 @@
       <c r="F110" t="s">
         <v>617</v>
       </c>
-      <c r="G110" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0336-2021</v>
+      <c r="G110" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H110" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7200,9 +7199,9 @@
       <c r="F111" t="s">
         <v>617</v>
       </c>
-      <c r="G111" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0337-2021</v>
+      <c r="G111" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H111" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7244,9 +7243,9 @@
       <c r="F112" t="s">
         <v>617</v>
       </c>
-      <c r="G112" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0338-2021</v>
+      <c r="G112" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H112" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7288,9 +7287,9 @@
       <c r="F113" t="s">
         <v>617</v>
       </c>
-      <c r="G113" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0339-2021</v>
+      <c r="G113" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H113" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7332,9 +7331,9 @@
       <c r="F114" t="s">
         <v>617</v>
       </c>
-      <c r="G114" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0340-2021</v>
+      <c r="G114" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H114" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7376,9 +7375,9 @@
       <c r="F115" t="s">
         <v>617</v>
       </c>
-      <c r="G115" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0341-2021</v>
+      <c r="G115" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H115" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7420,9 +7419,9 @@
       <c r="F116" t="s">
         <v>617</v>
       </c>
-      <c r="G116" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0342-2021</v>
+      <c r="G116" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H116" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7464,9 +7463,9 @@
       <c r="F117" t="s">
         <v>617</v>
       </c>
-      <c r="G117" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0343-2021</v>
+      <c r="G117" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H117" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7508,9 +7507,9 @@
       <c r="F118" t="s">
         <v>617</v>
       </c>
-      <c r="G118" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0344-2021</v>
+      <c r="G118" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H118" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7552,9 +7551,9 @@
       <c r="F119" t="s">
         <v>617</v>
       </c>
-      <c r="G119" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0345-2021</v>
+      <c r="G119" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H119" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7596,9 +7595,9 @@
       <c r="F120" t="s">
         <v>617</v>
       </c>
-      <c r="G120" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0346-2021</v>
+      <c r="G120" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H120" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7640,9 +7639,9 @@
       <c r="F121" t="s">
         <v>617</v>
       </c>
-      <c r="G121" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0347-2021</v>
+      <c r="G121" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H121" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7684,9 +7683,9 @@
       <c r="F122" t="s">
         <v>617</v>
       </c>
-      <c r="G122" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0348-2021</v>
+      <c r="G122" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H122" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7728,9 +7727,9 @@
       <c r="F123" t="s">
         <v>617</v>
       </c>
-      <c r="G123" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0349-2021</v>
+      <c r="G123" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H123" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7772,9 +7771,9 @@
       <c r="F124" t="s">
         <v>617</v>
       </c>
-      <c r="G124" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0350-2021</v>
+      <c r="G124" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H124" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7816,9 +7815,9 @@
       <c r="F125" t="s">
         <v>617</v>
       </c>
-      <c r="G125" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0351-2021</v>
+      <c r="G125" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H125" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7860,9 +7859,9 @@
       <c r="F126" t="s">
         <v>617</v>
       </c>
-      <c r="G126" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0352-2021</v>
+      <c r="G126" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H126" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7904,9 +7903,9 @@
       <c r="F127" t="s">
         <v>617</v>
       </c>
-      <c r="G127" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0353-2021</v>
+      <c r="G127" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H127" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7948,9 +7947,9 @@
       <c r="F128" t="s">
         <v>616</v>
       </c>
-      <c r="G128" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0354-2021</v>
+      <c r="G128" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H128" s="5" t="str">
         <f t="shared" si="4"/>
@@ -7992,9 +7991,9 @@
       <c r="F129" t="s">
         <v>616</v>
       </c>
-      <c r="G129" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0355-2021</v>
+      <c r="G129" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H129" s="5" t="str">
         <f t="shared" si="4"/>
@@ -8036,9 +8035,9 @@
       <c r="F130" t="s">
         <v>616</v>
       </c>
-      <c r="G130" t="str">
-        <f t="shared" si="3"/>
-        <v>ДТ-0356-2021</v>
+      <c r="G130" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#NAME?</v>
       </c>
       <c r="H130" s="5" t="str">
         <f t="shared" si="4"/>
@@ -8080,9 +8079,9 @@
       <c r="F131" t="s">
         <v>616</v>
       </c>
-      <c r="G131" t="str">
-        <f t="shared" ref="G131:G194" si="6">_xlfn.CONCAT(L131,"-",M131,N131,"-",O131)</f>
-        <v>ДТ-0357-2021</v>
+      <c r="G131" t="e">
+        <f t="shared" ref="G131:G194" ca="1" si="6">_xlfn.CONCAT(L131,"-",M131,N131,"-",O131)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H131" s="5" t="str">
         <f t="shared" ref="H131:H194" si="7">IF(RIGHT(B131)="ч","являлся","являлась")</f>
@@ -8124,9 +8123,9 @@
       <c r="F132" t="s">
         <v>616</v>
       </c>
-      <c r="G132" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0358-2021</v>
+      <c r="G132" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H132" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8168,9 +8167,9 @@
       <c r="F133" t="s">
         <v>616</v>
       </c>
-      <c r="G133" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0359-2021</v>
+      <c r="G133" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H133" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8212,9 +8211,9 @@
       <c r="F134" t="s">
         <v>616</v>
       </c>
-      <c r="G134" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0360-2021</v>
+      <c r="G134" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H134" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8256,9 +8255,9 @@
       <c r="F135" t="s">
         <v>616</v>
       </c>
-      <c r="G135" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0361-2021</v>
+      <c r="G135" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H135" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8300,9 +8299,9 @@
       <c r="F136" t="s">
         <v>616</v>
       </c>
-      <c r="G136" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0362-2021</v>
+      <c r="G136" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H136" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8344,9 +8343,9 @@
       <c r="F137" t="s">
         <v>616</v>
       </c>
-      <c r="G137" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0363-2021</v>
+      <c r="G137" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H137" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8388,9 +8387,9 @@
       <c r="F138" t="s">
         <v>616</v>
       </c>
-      <c r="G138" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0364-2021</v>
+      <c r="G138" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H138" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8432,9 +8431,9 @@
       <c r="F139" t="s">
         <v>616</v>
       </c>
-      <c r="G139" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0365-2021</v>
+      <c r="G139" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H139" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8476,9 +8475,9 @@
       <c r="F140" t="s">
         <v>616</v>
       </c>
-      <c r="G140" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0366-2021</v>
+      <c r="G140" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H140" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8520,9 +8519,9 @@
       <c r="F141" t="s">
         <v>616</v>
       </c>
-      <c r="G141" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0367-2021</v>
+      <c r="G141" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H141" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8564,9 +8563,9 @@
       <c r="F142" t="s">
         <v>616</v>
       </c>
-      <c r="G142" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0368-2021</v>
+      <c r="G142" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H142" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8608,9 +8607,9 @@
       <c r="F143" t="s">
         <v>616</v>
       </c>
-      <c r="G143" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0369-2021</v>
+      <c r="G143" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H143" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8652,9 +8651,9 @@
       <c r="F144" t="s">
         <v>616</v>
       </c>
-      <c r="G144" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0370-2021</v>
+      <c r="G144" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H144" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8696,9 +8695,9 @@
       <c r="F145" t="s">
         <v>615</v>
       </c>
-      <c r="G145" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0371-2021</v>
+      <c r="G145" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H145" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8740,9 +8739,9 @@
       <c r="F146" t="s">
         <v>615</v>
       </c>
-      <c r="G146" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0372-2021</v>
+      <c r="G146" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H146" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8784,9 +8783,9 @@
       <c r="F147" t="s">
         <v>615</v>
       </c>
-      <c r="G147" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0373-2021</v>
+      <c r="G147" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H147" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8828,9 +8827,9 @@
       <c r="F148" t="s">
         <v>617</v>
       </c>
-      <c r="G148" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0374-2021</v>
+      <c r="G148" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H148" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8872,9 +8871,9 @@
       <c r="F149" t="s">
         <v>617</v>
       </c>
-      <c r="G149" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0375-2021</v>
+      <c r="G149" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H149" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8916,9 +8915,9 @@
       <c r="F150" t="s">
         <v>617</v>
       </c>
-      <c r="G150" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0376-2021</v>
+      <c r="G150" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H150" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8960,9 +8959,9 @@
       <c r="F151" t="s">
         <v>617</v>
       </c>
-      <c r="G151" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0377-2021</v>
+      <c r="G151" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H151" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9004,9 +9003,9 @@
       <c r="F152" t="s">
         <v>617</v>
       </c>
-      <c r="G152" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0378-2021</v>
+      <c r="G152" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H152" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9048,9 +9047,9 @@
       <c r="F153" t="s">
         <v>617</v>
       </c>
-      <c r="G153" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0379-2021</v>
+      <c r="G153" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H153" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9092,9 +9091,9 @@
       <c r="F154" t="s">
         <v>617</v>
       </c>
-      <c r="G154" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0380-2021</v>
+      <c r="G154" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H154" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9136,9 +9135,9 @@
       <c r="F155" t="s">
         <v>617</v>
       </c>
-      <c r="G155" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0381-2021</v>
+      <c r="G155" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H155" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9180,9 +9179,9 @@
       <c r="F156" t="s">
         <v>617</v>
       </c>
-      <c r="G156" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0382-2021</v>
+      <c r="G156" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H156" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9224,9 +9223,9 @@
       <c r="F157" t="s">
         <v>617</v>
       </c>
-      <c r="G157" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0383-2021</v>
+      <c r="G157" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H157" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9268,9 +9267,9 @@
       <c r="F158" t="s">
         <v>617</v>
       </c>
-      <c r="G158" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0384-2021</v>
+      <c r="G158" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H158" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9312,9 +9311,9 @@
       <c r="F159" t="s">
         <v>617</v>
       </c>
-      <c r="G159" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0385-2021</v>
+      <c r="G159" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H159" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9356,9 +9355,9 @@
       <c r="F160" t="s">
         <v>617</v>
       </c>
-      <c r="G160" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0386-2021</v>
+      <c r="G160" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H160" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9400,9 +9399,9 @@
       <c r="F161" t="s">
         <v>617</v>
       </c>
-      <c r="G161" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0387-2021</v>
+      <c r="G161" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H161" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9444,9 +9443,9 @@
       <c r="F162" t="s">
         <v>617</v>
       </c>
-      <c r="G162" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0388-2021</v>
+      <c r="G162" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H162" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9488,9 +9487,9 @@
       <c r="F163" t="s">
         <v>617</v>
       </c>
-      <c r="G163" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0389-2021</v>
+      <c r="G163" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H163" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9532,9 +9531,9 @@
       <c r="F164" t="s">
         <v>617</v>
       </c>
-      <c r="G164" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0390-2021</v>
+      <c r="G164" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H164" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9576,9 +9575,9 @@
       <c r="F165" t="s">
         <v>617</v>
       </c>
-      <c r="G165" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0391-2021</v>
+      <c r="G165" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H165" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9620,9 +9619,9 @@
       <c r="F166" t="s">
         <v>617</v>
       </c>
-      <c r="G166" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0392-2021</v>
+      <c r="G166" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H166" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9664,9 +9663,9 @@
       <c r="F167" t="s">
         <v>617</v>
       </c>
-      <c r="G167" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0393-2021</v>
+      <c r="G167" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H167" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9708,9 +9707,9 @@
       <c r="F168" t="s">
         <v>617</v>
       </c>
-      <c r="G168" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0394-2021</v>
+      <c r="G168" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H168" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9752,9 +9751,9 @@
       <c r="F169" t="s">
         <v>617</v>
       </c>
-      <c r="G169" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0395-2021</v>
+      <c r="G169" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H169" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9796,9 +9795,9 @@
       <c r="F170" t="s">
         <v>617</v>
       </c>
-      <c r="G170" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0396-2021</v>
+      <c r="G170" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H170" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9840,9 +9839,9 @@
       <c r="F171" t="s">
         <v>617</v>
       </c>
-      <c r="G171" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0397-2021</v>
+      <c r="G171" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H171" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9884,9 +9883,9 @@
       <c r="F172" t="s">
         <v>617</v>
       </c>
-      <c r="G172" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0398-2021</v>
+      <c r="G172" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H172" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9928,9 +9927,9 @@
       <c r="F173" t="s">
         <v>617</v>
       </c>
-      <c r="G173" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0399-2021</v>
+      <c r="G173" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H173" s="5" t="str">
         <f t="shared" si="7"/>
@@ -9972,9 +9971,9 @@
       <c r="F174" t="s">
         <v>617</v>
       </c>
-      <c r="G174" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0400-2021</v>
+      <c r="G174" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H174" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10016,9 +10015,9 @@
       <c r="F175" t="s">
         <v>617</v>
       </c>
-      <c r="G175" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0401-2021</v>
+      <c r="G175" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H175" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10060,9 +10059,9 @@
       <c r="F176" t="s">
         <v>617</v>
       </c>
-      <c r="G176" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0402-2021</v>
+      <c r="G176" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H176" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10104,9 +10103,9 @@
       <c r="F177" t="s">
         <v>617</v>
       </c>
-      <c r="G177" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0403-2021</v>
+      <c r="G177" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H177" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10148,9 +10147,9 @@
       <c r="F178" t="s">
         <v>617</v>
       </c>
-      <c r="G178" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0404-2021</v>
+      <c r="G178" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H178" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10192,9 +10191,9 @@
       <c r="F179" t="s">
         <v>617</v>
       </c>
-      <c r="G179" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0405-2021</v>
+      <c r="G179" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H179" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10236,9 +10235,9 @@
       <c r="F180" t="s">
         <v>617</v>
       </c>
-      <c r="G180" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0406-2021</v>
+      <c r="G180" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H180" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10280,9 +10279,9 @@
       <c r="F181" t="s">
         <v>617</v>
       </c>
-      <c r="G181" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0407-2021</v>
+      <c r="G181" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H181" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10324,9 +10323,9 @@
       <c r="F182" t="s">
         <v>617</v>
       </c>
-      <c r="G182" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0408-2021</v>
+      <c r="G182" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H182" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10368,9 +10367,9 @@
       <c r="F183" t="s">
         <v>617</v>
       </c>
-      <c r="G183" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0409-2021</v>
+      <c r="G183" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H183" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10412,9 +10411,9 @@
       <c r="F184" t="s">
         <v>617</v>
       </c>
-      <c r="G184" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0410-2021</v>
+      <c r="G184" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H184" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10456,9 +10455,9 @@
       <c r="F185" t="s">
         <v>617</v>
       </c>
-      <c r="G185" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0411-2021</v>
+      <c r="G185" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H185" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10500,9 +10499,9 @@
       <c r="F186" t="s">
         <v>617</v>
       </c>
-      <c r="G186" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0412-2021</v>
+      <c r="G186" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H186" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10544,9 +10543,9 @@
       <c r="F187" t="s">
         <v>617</v>
       </c>
-      <c r="G187" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0413-2021</v>
+      <c r="G187" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H187" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10588,9 +10587,9 @@
       <c r="F188" t="s">
         <v>617</v>
       </c>
-      <c r="G188" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0414-2021</v>
+      <c r="G188" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H188" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10632,9 +10631,9 @@
       <c r="F189" t="s">
         <v>617</v>
       </c>
-      <c r="G189" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0415-2021</v>
+      <c r="G189" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H189" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10676,9 +10675,9 @@
       <c r="F190" t="s">
         <v>617</v>
       </c>
-      <c r="G190" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0416-2021</v>
+      <c r="G190" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H190" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10720,9 +10719,9 @@
       <c r="F191" t="s">
         <v>617</v>
       </c>
-      <c r="G191" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0417-2021</v>
+      <c r="G191" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H191" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10764,9 +10763,9 @@
       <c r="F192" t="s">
         <v>617</v>
       </c>
-      <c r="G192" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0418-2021</v>
+      <c r="G192" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H192" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10808,9 +10807,9 @@
       <c r="F193" t="s">
         <v>617</v>
       </c>
-      <c r="G193" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0419-2021</v>
+      <c r="G193" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H193" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10852,9 +10851,9 @@
       <c r="F194" t="s">
         <v>617</v>
       </c>
-      <c r="G194" t="str">
-        <f t="shared" si="6"/>
-        <v>ДТ-0420-2021</v>
+      <c r="G194" t="e">
+        <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
       </c>
       <c r="H194" s="5" t="str">
         <f t="shared" si="7"/>
@@ -10896,9 +10895,9 @@
       <c r="F195" t="s">
         <v>617</v>
       </c>
-      <c r="G195" t="str">
-        <f t="shared" ref="G195:G258" si="9">_xlfn.CONCAT(L195,"-",M195,N195,"-",O195)</f>
-        <v>ДТ-0421-2021</v>
+      <c r="G195" t="e">
+        <f t="shared" ref="G195:G258" ca="1" si="9">_xlfn.CONCAT(L195,"-",M195,N195,"-",O195)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H195" s="5" t="str">
         <f t="shared" ref="H195:H258" si="10">IF(RIGHT(B195)="ч","являлся","являлась")</f>
@@ -10940,9 +10939,9 @@
       <c r="F196" t="s">
         <v>617</v>
       </c>
-      <c r="G196" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0422-2021</v>
+      <c r="G196" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H196" s="5" t="str">
         <f t="shared" si="10"/>
@@ -10984,9 +10983,9 @@
       <c r="F197" t="s">
         <v>617</v>
       </c>
-      <c r="G197" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0423-2021</v>
+      <c r="G197" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H197" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11028,9 +11027,9 @@
       <c r="F198" t="s">
         <v>617</v>
       </c>
-      <c r="G198" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0424-2021</v>
+      <c r="G198" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H198" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11072,9 +11071,9 @@
       <c r="F199" t="s">
         <v>617</v>
       </c>
-      <c r="G199" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0425-2021</v>
+      <c r="G199" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H199" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11116,9 +11115,9 @@
       <c r="F200" t="s">
         <v>617</v>
       </c>
-      <c r="G200" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0426-2021</v>
+      <c r="G200" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H200" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11160,9 +11159,9 @@
       <c r="F201" t="s">
         <v>617</v>
       </c>
-      <c r="G201" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0427-2021</v>
+      <c r="G201" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H201" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11204,9 +11203,9 @@
       <c r="F202" t="s">
         <v>617</v>
       </c>
-      <c r="G202" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0428-2021</v>
+      <c r="G202" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H202" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11248,9 +11247,9 @@
       <c r="F203" t="s">
         <v>617</v>
       </c>
-      <c r="G203" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0429-2021</v>
+      <c r="G203" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H203" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11292,9 +11291,9 @@
       <c r="F204" t="s">
         <v>617</v>
       </c>
-      <c r="G204" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0430-2021</v>
+      <c r="G204" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H204" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11336,9 +11335,9 @@
       <c r="F205" t="s">
         <v>617</v>
       </c>
-      <c r="G205" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0431-2021</v>
+      <c r="G205" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H205" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11380,9 +11379,9 @@
       <c r="F206" t="s">
         <v>617</v>
       </c>
-      <c r="G206" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0432-2021</v>
+      <c r="G206" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H206" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11424,9 +11423,9 @@
       <c r="F207" t="s">
         <v>617</v>
       </c>
-      <c r="G207" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0433-2021</v>
+      <c r="G207" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H207" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11468,9 +11467,9 @@
       <c r="F208" t="s">
         <v>617</v>
       </c>
-      <c r="G208" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0434-2021</v>
+      <c r="G208" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H208" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11512,9 +11511,9 @@
       <c r="F209" t="s">
         <v>617</v>
       </c>
-      <c r="G209" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0435-2021</v>
+      <c r="G209" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H209" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11556,9 +11555,9 @@
       <c r="F210" t="s">
         <v>617</v>
       </c>
-      <c r="G210" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0436-2021</v>
+      <c r="G210" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H210" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11600,9 +11599,9 @@
       <c r="F211" t="s">
         <v>617</v>
       </c>
-      <c r="G211" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0437-2021</v>
+      <c r="G211" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H211" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11644,9 +11643,9 @@
       <c r="F212" t="s">
         <v>617</v>
       </c>
-      <c r="G212" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0438-2021</v>
+      <c r="G212" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H212" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11688,9 +11687,9 @@
       <c r="F213" t="s">
         <v>617</v>
       </c>
-      <c r="G213" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0439-2021</v>
+      <c r="G213" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H213" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11732,9 +11731,9 @@
       <c r="F214" t="s">
         <v>617</v>
       </c>
-      <c r="G214" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0440-2021</v>
+      <c r="G214" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H214" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11776,9 +11775,9 @@
       <c r="F215" t="s">
         <v>617</v>
       </c>
-      <c r="G215" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0441-2021</v>
+      <c r="G215" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H215" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11820,9 +11819,9 @@
       <c r="F216" t="s">
         <v>617</v>
       </c>
-      <c r="G216" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0442-2021</v>
+      <c r="G216" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H216" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11864,9 +11863,9 @@
       <c r="F217" t="s">
         <v>617</v>
       </c>
-      <c r="G217" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0443-2021</v>
+      <c r="G217" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H217" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11908,9 +11907,9 @@
       <c r="F218" t="s">
         <v>617</v>
       </c>
-      <c r="G218" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0444-2021</v>
+      <c r="G218" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H218" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11952,9 +11951,9 @@
       <c r="F219" t="s">
         <v>617</v>
       </c>
-      <c r="G219" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0445-2021</v>
+      <c r="G219" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H219" s="5" t="str">
         <f t="shared" si="10"/>
@@ -11996,9 +11995,9 @@
       <c r="F220" t="s">
         <v>617</v>
       </c>
-      <c r="G220" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0446-2021</v>
+      <c r="G220" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H220" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12040,9 +12039,9 @@
       <c r="F221" t="s">
         <v>617</v>
       </c>
-      <c r="G221" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0447-2021</v>
+      <c r="G221" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H221" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12084,9 +12083,9 @@
       <c r="F222" t="s">
         <v>617</v>
       </c>
-      <c r="G222" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0448-2021</v>
+      <c r="G222" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H222" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12128,9 +12127,9 @@
       <c r="F223" t="s">
         <v>617</v>
       </c>
-      <c r="G223" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0449-2021</v>
+      <c r="G223" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H223" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12172,9 +12171,9 @@
       <c r="F224" t="s">
         <v>617</v>
       </c>
-      <c r="G224" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0450-2021</v>
+      <c r="G224" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H224" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12216,9 +12215,9 @@
       <c r="F225" t="s">
         <v>617</v>
       </c>
-      <c r="G225" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0451-2021</v>
+      <c r="G225" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H225" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12260,9 +12259,9 @@
       <c r="F226" t="s">
         <v>617</v>
       </c>
-      <c r="G226" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0452-2021</v>
+      <c r="G226" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H226" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12304,9 +12303,9 @@
       <c r="F227" t="s">
         <v>617</v>
       </c>
-      <c r="G227" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0453-2021</v>
+      <c r="G227" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H227" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12348,9 +12347,9 @@
       <c r="F228" t="s">
         <v>617</v>
       </c>
-      <c r="G228" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0454-2021</v>
+      <c r="G228" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H228" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12392,9 +12391,9 @@
       <c r="F229" t="s">
         <v>617</v>
       </c>
-      <c r="G229" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0455-2021</v>
+      <c r="G229" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H229" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12436,9 +12435,9 @@
       <c r="F230" t="s">
         <v>617</v>
       </c>
-      <c r="G230" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0456-2021</v>
+      <c r="G230" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H230" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12480,9 +12479,9 @@
       <c r="F231" t="s">
         <v>617</v>
       </c>
-      <c r="G231" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0457-2021</v>
+      <c r="G231" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H231" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12524,9 +12523,9 @@
       <c r="F232" t="s">
         <v>617</v>
       </c>
-      <c r="G232" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0458-2021</v>
+      <c r="G232" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H232" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12568,9 +12567,9 @@
       <c r="F233" t="s">
         <v>617</v>
       </c>
-      <c r="G233" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0459-2021</v>
+      <c r="G233" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H233" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12612,9 +12611,9 @@
       <c r="F234" t="s">
         <v>617</v>
       </c>
-      <c r="G234" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0460-2021</v>
+      <c r="G234" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H234" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12656,9 +12655,9 @@
       <c r="F235" t="s">
         <v>617</v>
       </c>
-      <c r="G235" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0461-2021</v>
+      <c r="G235" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H235" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12700,9 +12699,9 @@
       <c r="F236" t="s">
         <v>617</v>
       </c>
-      <c r="G236" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0462-2021</v>
+      <c r="G236" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H236" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12744,9 +12743,9 @@
       <c r="F237" t="s">
         <v>617</v>
       </c>
-      <c r="G237" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0463-2021</v>
+      <c r="G237" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H237" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12788,9 +12787,9 @@
       <c r="F238" t="s">
         <v>617</v>
       </c>
-      <c r="G238" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0464-2021</v>
+      <c r="G238" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H238" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12832,9 +12831,9 @@
       <c r="F239" t="s">
         <v>617</v>
       </c>
-      <c r="G239" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0465-2021</v>
+      <c r="G239" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H239" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12876,9 +12875,9 @@
       <c r="F240" t="s">
         <v>617</v>
       </c>
-      <c r="G240" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0466-2021</v>
+      <c r="G240" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H240" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12920,9 +12919,9 @@
       <c r="F241" t="s">
         <v>617</v>
       </c>
-      <c r="G241" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0467-2021</v>
+      <c r="G241" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H241" s="5" t="str">
         <f t="shared" si="10"/>
@@ -12964,9 +12963,9 @@
       <c r="F242" t="s">
         <v>617</v>
       </c>
-      <c r="G242" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0468-2021</v>
+      <c r="G242" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H242" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13008,9 +13007,9 @@
       <c r="F243" t="s">
         <v>617</v>
       </c>
-      <c r="G243" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0469-2021</v>
+      <c r="G243" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H243" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13052,9 +13051,9 @@
       <c r="F244" t="s">
         <v>617</v>
       </c>
-      <c r="G244" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0470-2021</v>
+      <c r="G244" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H244" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13096,9 +13095,9 @@
       <c r="F245" t="s">
         <v>617</v>
       </c>
-      <c r="G245" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0471-2021</v>
+      <c r="G245" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H245" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13140,9 +13139,9 @@
       <c r="F246" t="s">
         <v>617</v>
       </c>
-      <c r="G246" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0472-2021</v>
+      <c r="G246" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H246" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13184,9 +13183,9 @@
       <c r="F247" t="s">
         <v>617</v>
       </c>
-      <c r="G247" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0473-2021</v>
+      <c r="G247" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H247" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13228,9 +13227,9 @@
       <c r="F248" t="s">
         <v>617</v>
       </c>
-      <c r="G248" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0474-2021</v>
+      <c r="G248" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H248" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13272,9 +13271,9 @@
       <c r="F249" t="s">
         <v>617</v>
       </c>
-      <c r="G249" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0475-2021</v>
+      <c r="G249" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H249" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13316,9 +13315,9 @@
       <c r="F250" t="s">
         <v>617</v>
       </c>
-      <c r="G250" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0476-2021</v>
+      <c r="G250" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H250" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13360,9 +13359,9 @@
       <c r="F251" t="s">
         <v>617</v>
       </c>
-      <c r="G251" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0477-2021</v>
+      <c r="G251" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H251" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13404,9 +13403,9 @@
       <c r="F252" t="s">
         <v>617</v>
       </c>
-      <c r="G252" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0478-2021</v>
+      <c r="G252" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H252" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13448,9 +13447,9 @@
       <c r="F253" t="s">
         <v>617</v>
       </c>
-      <c r="G253" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0479-2021</v>
+      <c r="G253" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H253" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13492,9 +13491,9 @@
       <c r="F254" t="s">
         <v>617</v>
       </c>
-      <c r="G254" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0480-2021</v>
+      <c r="G254" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H254" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13536,9 +13535,9 @@
       <c r="F255" t="s">
         <v>617</v>
       </c>
-      <c r="G255" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0481-2021</v>
+      <c r="G255" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H255" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13580,9 +13579,9 @@
       <c r="F256" t="s">
         <v>617</v>
       </c>
-      <c r="G256" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0482-2021</v>
+      <c r="G256" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H256" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13624,9 +13623,9 @@
       <c r="F257" t="s">
         <v>617</v>
       </c>
-      <c r="G257" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0483-2021</v>
+      <c r="G257" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H257" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13668,9 +13667,9 @@
       <c r="F258" t="s">
         <v>617</v>
       </c>
-      <c r="G258" t="str">
-        <f t="shared" si="9"/>
-        <v>ДТ-0484-2021</v>
+      <c r="G258" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="H258" s="5" t="str">
         <f t="shared" si="10"/>
@@ -13712,9 +13711,9 @@
       <c r="F259" t="s">
         <v>617</v>
       </c>
-      <c r="G259" t="str">
-        <f t="shared" ref="G259:G322" si="12">_xlfn.CONCAT(L259,"-",M259,N259,"-",O259)</f>
-        <v>ДТ-0485-2021</v>
+      <c r="G259" t="e">
+        <f t="shared" ref="G259:G322" ca="1" si="12">_xlfn.CONCAT(L259,"-",M259,N259,"-",O259)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H259" s="5" t="str">
         <f t="shared" ref="H259:H322" si="13">IF(RIGHT(B259)="ч","являлся","являлась")</f>
@@ -13756,9 +13755,9 @@
       <c r="F260" t="s">
         <v>617</v>
       </c>
-      <c r="G260" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0486-2021</v>
+      <c r="G260" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H260" s="5" t="str">
         <f t="shared" si="13"/>
@@ -13800,9 +13799,9 @@
       <c r="F261" t="s">
         <v>617</v>
       </c>
-      <c r="G261" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0487-2021</v>
+      <c r="G261" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H261" s="5" t="str">
         <f t="shared" si="13"/>
@@ -13844,9 +13843,9 @@
       <c r="F262" t="s">
         <v>617</v>
       </c>
-      <c r="G262" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0488-2021</v>
+      <c r="G262" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H262" s="5" t="str">
         <f t="shared" si="13"/>
@@ -13888,9 +13887,9 @@
       <c r="F263" t="s">
         <v>617</v>
       </c>
-      <c r="G263" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0489-2021</v>
+      <c r="G263" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H263" s="5" t="str">
         <f t="shared" si="13"/>
@@ -13932,9 +13931,9 @@
       <c r="F264" t="s">
         <v>617</v>
       </c>
-      <c r="G264" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0490-2021</v>
+      <c r="G264" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H264" s="5" t="str">
         <f t="shared" si="13"/>
@@ -13976,9 +13975,9 @@
       <c r="F265" t="s">
         <v>617</v>
       </c>
-      <c r="G265" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0491-2021</v>
+      <c r="G265" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H265" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14020,9 +14019,9 @@
       <c r="F266" t="s">
         <v>617</v>
       </c>
-      <c r="G266" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0492-2021</v>
+      <c r="G266" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H266" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14064,9 +14063,9 @@
       <c r="F267" t="s">
         <v>617</v>
       </c>
-      <c r="G267" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0493-2021</v>
+      <c r="G267" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H267" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14108,9 +14107,9 @@
       <c r="F268" t="s">
         <v>617</v>
       </c>
-      <c r="G268" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0494-2021</v>
+      <c r="G268" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H268" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14152,9 +14151,9 @@
       <c r="F269" t="s">
         <v>617</v>
       </c>
-      <c r="G269" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0495-2021</v>
+      <c r="G269" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H269" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14196,9 +14195,9 @@
       <c r="F270" t="s">
         <v>617</v>
       </c>
-      <c r="G270" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0496-2021</v>
+      <c r="G270" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H270" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14240,9 +14239,9 @@
       <c r="F271" t="s">
         <v>617</v>
       </c>
-      <c r="G271" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0497-2021</v>
+      <c r="G271" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H271" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14284,9 +14283,9 @@
       <c r="F272" t="s">
         <v>617</v>
       </c>
-      <c r="G272" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0498-2021</v>
+      <c r="G272" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H272" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14328,9 +14327,9 @@
       <c r="F273" t="s">
         <v>617</v>
       </c>
-      <c r="G273" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0499-2021</v>
+      <c r="G273" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H273" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14372,9 +14371,9 @@
       <c r="F274" t="s">
         <v>617</v>
       </c>
-      <c r="G274" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0500-2021</v>
+      <c r="G274" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H274" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14416,9 +14415,9 @@
       <c r="F275" t="s">
         <v>617</v>
       </c>
-      <c r="G275" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0501-2021</v>
+      <c r="G275" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H275" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14460,9 +14459,9 @@
       <c r="F276" t="s">
         <v>617</v>
       </c>
-      <c r="G276" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0502-2021</v>
+      <c r="G276" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H276" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14504,9 +14503,9 @@
       <c r="F277" t="s">
         <v>617</v>
       </c>
-      <c r="G277" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0503-2021</v>
+      <c r="G277" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H277" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14548,9 +14547,9 @@
       <c r="F278" t="s">
         <v>617</v>
       </c>
-      <c r="G278" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0504-2021</v>
+      <c r="G278" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H278" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14592,9 +14591,9 @@
       <c r="F279" t="s">
         <v>617</v>
       </c>
-      <c r="G279" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0505-2021</v>
+      <c r="G279" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H279" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14636,9 +14635,9 @@
       <c r="F280" t="s">
         <v>617</v>
       </c>
-      <c r="G280" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0506-2021</v>
+      <c r="G280" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H280" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14680,9 +14679,9 @@
       <c r="F281" t="s">
         <v>617</v>
       </c>
-      <c r="G281" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0507-2021</v>
+      <c r="G281" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H281" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14724,9 +14723,9 @@
       <c r="F282" t="s">
         <v>617</v>
       </c>
-      <c r="G282" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0508-2021</v>
+      <c r="G282" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H282" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14768,9 +14767,9 @@
       <c r="F283" t="s">
         <v>617</v>
       </c>
-      <c r="G283" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0509-2021</v>
+      <c r="G283" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H283" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14812,9 +14811,9 @@
       <c r="F284" t="s">
         <v>617</v>
       </c>
-      <c r="G284" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0510-2021</v>
+      <c r="G284" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H284" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14856,9 +14855,9 @@
       <c r="F285" t="s">
         <v>617</v>
       </c>
-      <c r="G285" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0511-2021</v>
+      <c r="G285" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H285" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14900,9 +14899,9 @@
       <c r="F286" t="s">
         <v>617</v>
       </c>
-      <c r="G286" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0512-2021</v>
+      <c r="G286" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H286" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14944,9 +14943,9 @@
       <c r="F287" t="s">
         <v>617</v>
       </c>
-      <c r="G287" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0513-2021</v>
+      <c r="G287" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H287" s="5" t="str">
         <f t="shared" si="13"/>
@@ -14988,9 +14987,9 @@
       <c r="F288" t="s">
         <v>617</v>
       </c>
-      <c r="G288" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0514-2021</v>
+      <c r="G288" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H288" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15032,9 +15031,9 @@
       <c r="F289" t="s">
         <v>617</v>
       </c>
-      <c r="G289" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0515-2021</v>
+      <c r="G289" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H289" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15076,9 +15075,9 @@
       <c r="F290" t="s">
         <v>617</v>
       </c>
-      <c r="G290" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0516-2021</v>
+      <c r="G290" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H290" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15120,9 +15119,9 @@
       <c r="F291" t="s">
         <v>617</v>
       </c>
-      <c r="G291" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0517-2021</v>
+      <c r="G291" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H291" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15164,9 +15163,9 @@
       <c r="F292" t="s">
         <v>617</v>
       </c>
-      <c r="G292" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0518-2021</v>
+      <c r="G292" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H292" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15208,9 +15207,9 @@
       <c r="F293" t="s">
         <v>617</v>
       </c>
-      <c r="G293" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0519-2021</v>
+      <c r="G293" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H293" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15252,9 +15251,9 @@
       <c r="F294" t="s">
         <v>617</v>
       </c>
-      <c r="G294" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0520-2021</v>
+      <c r="G294" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H294" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15296,9 +15295,9 @@
       <c r="F295" t="s">
         <v>617</v>
       </c>
-      <c r="G295" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0521-2021</v>
+      <c r="G295" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H295" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15340,9 +15339,9 @@
       <c r="F296" t="s">
         <v>617</v>
       </c>
-      <c r="G296" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0522-2021</v>
+      <c r="G296" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H296" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15384,9 +15383,9 @@
       <c r="F297" t="s">
         <v>617</v>
       </c>
-      <c r="G297" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0523-2021</v>
+      <c r="G297" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H297" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15428,9 +15427,9 @@
       <c r="F298" t="s">
         <v>617</v>
       </c>
-      <c r="G298" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0524-2021</v>
+      <c r="G298" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H298" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15472,9 +15471,9 @@
       <c r="F299" t="s">
         <v>617</v>
       </c>
-      <c r="G299" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0525-2021</v>
+      <c r="G299" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H299" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15516,9 +15515,9 @@
       <c r="F300" t="s">
         <v>617</v>
       </c>
-      <c r="G300" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0526-2021</v>
+      <c r="G300" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H300" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15560,9 +15559,9 @@
       <c r="F301" t="s">
         <v>617</v>
       </c>
-      <c r="G301" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0527-2021</v>
+      <c r="G301" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H301" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15604,9 +15603,9 @@
       <c r="F302" t="s">
         <v>617</v>
       </c>
-      <c r="G302" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0528-2021</v>
+      <c r="G302" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H302" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15648,9 +15647,9 @@
       <c r="F303" t="s">
         <v>617</v>
       </c>
-      <c r="G303" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0529-2021</v>
+      <c r="G303" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H303" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15692,9 +15691,9 @@
       <c r="F304" t="s">
         <v>617</v>
       </c>
-      <c r="G304" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0530-2021</v>
+      <c r="G304" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H304" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15736,9 +15735,9 @@
       <c r="F305" t="s">
         <v>617</v>
       </c>
-      <c r="G305" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0531-2021</v>
+      <c r="G305" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H305" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15780,9 +15779,9 @@
       <c r="F306" t="s">
         <v>617</v>
       </c>
-      <c r="G306" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0532-2021</v>
+      <c r="G306" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H306" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15824,9 +15823,9 @@
       <c r="F307" t="s">
         <v>617</v>
       </c>
-      <c r="G307" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0533-2021</v>
+      <c r="G307" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H307" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15868,9 +15867,9 @@
       <c r="F308" t="s">
         <v>617</v>
       </c>
-      <c r="G308" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0534-2021</v>
+      <c r="G308" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H308" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15912,9 +15911,9 @@
       <c r="F309" t="s">
         <v>617</v>
       </c>
-      <c r="G309" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0535-2021</v>
+      <c r="G309" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H309" s="5" t="str">
         <f t="shared" si="13"/>
@@ -15956,9 +15955,9 @@
       <c r="F310" t="s">
         <v>617</v>
       </c>
-      <c r="G310" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0536-2021</v>
+      <c r="G310" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H310" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16000,9 +15999,9 @@
       <c r="F311" t="s">
         <v>617</v>
       </c>
-      <c r="G311" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0537-2021</v>
+      <c r="G311" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H311" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16044,9 +16043,9 @@
       <c r="F312" t="s">
         <v>617</v>
       </c>
-      <c r="G312" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0538-2021</v>
+      <c r="G312" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H312" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16088,9 +16087,9 @@
       <c r="F313" t="s">
         <v>617</v>
       </c>
-      <c r="G313" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0539-2021</v>
+      <c r="G313" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H313" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16132,9 +16131,9 @@
       <c r="F314" t="s">
         <v>617</v>
       </c>
-      <c r="G314" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0540-2021</v>
+      <c r="G314" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H314" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16176,9 +16175,9 @@
       <c r="F315" t="s">
         <v>617</v>
       </c>
-      <c r="G315" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0541-2021</v>
+      <c r="G315" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H315" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16220,9 +16219,9 @@
       <c r="F316" t="s">
         <v>617</v>
       </c>
-      <c r="G316" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0542-2021</v>
+      <c r="G316" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H316" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16264,9 +16263,9 @@
       <c r="F317" t="s">
         <v>617</v>
       </c>
-      <c r="G317" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0543-2021</v>
+      <c r="G317" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H317" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16308,9 +16307,9 @@
       <c r="F318" t="s">
         <v>617</v>
       </c>
-      <c r="G318" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0544-2021</v>
+      <c r="G318" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H318" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16352,9 +16351,9 @@
       <c r="F319" t="s">
         <v>617</v>
       </c>
-      <c r="G319" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0545-2021</v>
+      <c r="G319" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H319" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16396,9 +16395,9 @@
       <c r="F320" t="s">
         <v>617</v>
       </c>
-      <c r="G320" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0546-2021</v>
+      <c r="G320" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H320" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16440,9 +16439,9 @@
       <c r="F321" t="s">
         <v>617</v>
       </c>
-      <c r="G321" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0547-2021</v>
+      <c r="G321" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H321" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16484,9 +16483,9 @@
       <c r="F322" t="s">
         <v>617</v>
       </c>
-      <c r="G322" t="str">
-        <f t="shared" si="12"/>
-        <v>ДТ-0548-2021</v>
+      <c r="G322" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="H322" s="5" t="str">
         <f t="shared" si="13"/>
@@ -16528,9 +16527,9 @@
       <c r="F323" t="s">
         <v>617</v>
       </c>
-      <c r="G323" t="str">
-        <f t="shared" ref="G323:G386" si="15">_xlfn.CONCAT(L323,"-",M323,N323,"-",O323)</f>
-        <v>ДТ-0549-2021</v>
+      <c r="G323" t="e">
+        <f t="shared" ref="G323:G386" ca="1" si="15">_xlfn.CONCAT(L323,"-",M323,N323,"-",O323)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H323" s="5" t="str">
         <f t="shared" ref="H323:H386" si="16">IF(RIGHT(B323)="ч","являлся","являлась")</f>
@@ -16572,9 +16571,9 @@
       <c r="F324" t="s">
         <v>617</v>
       </c>
-      <c r="G324" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0550-2021</v>
+      <c r="G324" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H324" s="5" t="str">
         <f t="shared" si="16"/>
@@ -16616,9 +16615,9 @@
       <c r="F325" t="s">
         <v>617</v>
       </c>
-      <c r="G325" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0551-2021</v>
+      <c r="G325" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H325" s="5" t="str">
         <f t="shared" si="16"/>
@@ -16660,9 +16659,9 @@
       <c r="F326" t="s">
         <v>617</v>
       </c>
-      <c r="G326" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0552-2021</v>
+      <c r="G326" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H326" s="5" t="str">
         <f t="shared" si="16"/>
@@ -16704,9 +16703,9 @@
       <c r="F327" t="s">
         <v>617</v>
       </c>
-      <c r="G327" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0553-2021</v>
+      <c r="G327" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H327" s="5" t="str">
         <f t="shared" si="16"/>
@@ -16748,9 +16747,9 @@
       <c r="F328" t="s">
         <v>617</v>
       </c>
-      <c r="G328" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0554-2021</v>
+      <c r="G328" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H328" s="5" t="str">
         <f t="shared" si="16"/>
@@ -16792,9 +16791,9 @@
       <c r="F329" t="s">
         <v>617</v>
       </c>
-      <c r="G329" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0555-2021</v>
+      <c r="G329" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H329" s="5" t="str">
         <f t="shared" si="16"/>
@@ -16836,9 +16835,9 @@
       <c r="F330" t="s">
         <v>617</v>
       </c>
-      <c r="G330" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0556-2021</v>
+      <c r="G330" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H330" s="5" t="str">
         <f t="shared" si="16"/>
@@ -16880,9 +16879,9 @@
       <c r="F331" t="s">
         <v>617</v>
       </c>
-      <c r="G331" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0557-2021</v>
+      <c r="G331" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H331" s="5" t="str">
         <f t="shared" si="16"/>
@@ -16924,9 +16923,9 @@
       <c r="F332" t="s">
         <v>617</v>
       </c>
-      <c r="G332" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0558-2021</v>
+      <c r="G332" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H332" s="5" t="str">
         <f t="shared" si="16"/>
@@ -16968,9 +16967,9 @@
       <c r="F333" t="s">
         <v>617</v>
       </c>
-      <c r="G333" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0559-2021</v>
+      <c r="G333" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H333" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17012,9 +17011,9 @@
       <c r="F334" t="s">
         <v>617</v>
       </c>
-      <c r="G334" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0560-2021</v>
+      <c r="G334" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H334" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17056,9 +17055,9 @@
       <c r="F335" t="s">
         <v>617</v>
       </c>
-      <c r="G335" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0561-2021</v>
+      <c r="G335" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H335" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17100,9 +17099,9 @@
       <c r="F336" t="s">
         <v>617</v>
       </c>
-      <c r="G336" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0562-2021</v>
+      <c r="G336" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H336" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17144,9 +17143,9 @@
       <c r="F337" t="s">
         <v>617</v>
       </c>
-      <c r="G337" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0563-2021</v>
+      <c r="G337" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H337" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17188,9 +17187,9 @@
       <c r="F338" t="s">
         <v>617</v>
       </c>
-      <c r="G338" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0564-2021</v>
+      <c r="G338" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H338" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17232,9 +17231,9 @@
       <c r="F339" t="s">
         <v>617</v>
       </c>
-      <c r="G339" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0565-2021</v>
+      <c r="G339" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H339" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17276,9 +17275,9 @@
       <c r="F340" t="s">
         <v>616</v>
       </c>
-      <c r="G340" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0566-2021</v>
+      <c r="G340" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H340" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17320,9 +17319,9 @@
       <c r="F341" t="s">
         <v>617</v>
       </c>
-      <c r="G341" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0567-2021</v>
+      <c r="G341" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H341" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17364,9 +17363,9 @@
       <c r="F342" t="s">
         <v>617</v>
       </c>
-      <c r="G342" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0568-2021</v>
+      <c r="G342" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H342" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17408,9 +17407,9 @@
       <c r="F343" t="s">
         <v>617</v>
       </c>
-      <c r="G343" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0569-2021</v>
+      <c r="G343" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H343" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17452,9 +17451,9 @@
       <c r="F344" t="s">
         <v>617</v>
       </c>
-      <c r="G344" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0570-2021</v>
+      <c r="G344" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H344" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17496,9 +17495,9 @@
       <c r="F345" t="s">
         <v>617</v>
       </c>
-      <c r="G345" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0571-2021</v>
+      <c r="G345" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H345" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17540,9 +17539,9 @@
       <c r="F346" t="s">
         <v>617</v>
       </c>
-      <c r="G346" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0572-2021</v>
+      <c r="G346" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H346" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17584,9 +17583,9 @@
       <c r="F347" t="s">
         <v>617</v>
       </c>
-      <c r="G347" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0573-2021</v>
+      <c r="G347" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H347" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17628,9 +17627,9 @@
       <c r="F348" t="s">
         <v>617</v>
       </c>
-      <c r="G348" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0574-2021</v>
+      <c r="G348" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H348" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17672,9 +17671,9 @@
       <c r="F349" t="s">
         <v>617</v>
       </c>
-      <c r="G349" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0575-2021</v>
+      <c r="G349" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H349" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17716,9 +17715,9 @@
       <c r="F350" t="s">
         <v>617</v>
       </c>
-      <c r="G350" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0576-2021</v>
+      <c r="G350" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H350" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17760,9 +17759,9 @@
       <c r="F351" t="s">
         <v>617</v>
       </c>
-      <c r="G351" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0577-2021</v>
+      <c r="G351" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H351" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17804,9 +17803,9 @@
       <c r="F352" t="s">
         <v>617</v>
       </c>
-      <c r="G352" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0578-2021</v>
+      <c r="G352" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H352" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17848,9 +17847,9 @@
       <c r="F353" t="s">
         <v>616</v>
       </c>
-      <c r="G353" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0579-2021</v>
+      <c r="G353" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H353" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17892,9 +17891,9 @@
       <c r="F354" t="s">
         <v>617</v>
       </c>
-      <c r="G354" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0580-2021</v>
+      <c r="G354" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H354" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17936,9 +17935,9 @@
       <c r="F355" t="s">
         <v>617</v>
       </c>
-      <c r="G355" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0581-2021</v>
+      <c r="G355" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H355" s="5" t="str">
         <f t="shared" si="16"/>
@@ -17980,9 +17979,9 @@
       <c r="F356" t="s">
         <v>617</v>
       </c>
-      <c r="G356" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0582-2021</v>
+      <c r="G356" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H356" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18024,9 +18023,9 @@
       <c r="F357" t="s">
         <v>617</v>
       </c>
-      <c r="G357" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0583-2021</v>
+      <c r="G357" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H357" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18068,9 +18067,9 @@
       <c r="F358" t="s">
         <v>617</v>
       </c>
-      <c r="G358" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0584-2021</v>
+      <c r="G358" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H358" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18112,9 +18111,9 @@
       <c r="F359" t="s">
         <v>617</v>
       </c>
-      <c r="G359" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0585-2021</v>
+      <c r="G359" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H359" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18156,9 +18155,9 @@
       <c r="F360" t="s">
         <v>617</v>
       </c>
-      <c r="G360" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0586-2021</v>
+      <c r="G360" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H360" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18200,9 +18199,9 @@
       <c r="F361" t="s">
         <v>617</v>
       </c>
-      <c r="G361" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0587-2021</v>
+      <c r="G361" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H361" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18244,9 +18243,9 @@
       <c r="F362" t="s">
         <v>617</v>
       </c>
-      <c r="G362" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0588-2021</v>
+      <c r="G362" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H362" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18288,9 +18287,9 @@
       <c r="F363" t="s">
         <v>617</v>
       </c>
-      <c r="G363" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0589-2021</v>
+      <c r="G363" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H363" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18332,9 +18331,9 @@
       <c r="F364" t="s">
         <v>617</v>
       </c>
-      <c r="G364" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0590-2021</v>
+      <c r="G364" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H364" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18376,9 +18375,9 @@
       <c r="F365" t="s">
         <v>617</v>
       </c>
-      <c r="G365" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0591-2021</v>
+      <c r="G365" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H365" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18420,9 +18419,9 @@
       <c r="F366" t="s">
         <v>617</v>
       </c>
-      <c r="G366" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0592-2021</v>
+      <c r="G366" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H366" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18464,9 +18463,9 @@
       <c r="F367" t="s">
         <v>617</v>
       </c>
-      <c r="G367" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0593-2021</v>
+      <c r="G367" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H367" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18508,9 +18507,9 @@
       <c r="F368" t="s">
         <v>617</v>
       </c>
-      <c r="G368" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0594-2021</v>
+      <c r="G368" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H368" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18552,9 +18551,9 @@
       <c r="F369" t="s">
         <v>617</v>
       </c>
-      <c r="G369" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0595-2021</v>
+      <c r="G369" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H369" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18596,9 +18595,9 @@
       <c r="F370" t="s">
         <v>617</v>
       </c>
-      <c r="G370" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0596-2021</v>
+      <c r="G370" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H370" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18640,9 +18639,9 @@
       <c r="F371" t="s">
         <v>617</v>
       </c>
-      <c r="G371" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0597-2021</v>
+      <c r="G371" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H371" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18684,9 +18683,9 @@
       <c r="F372" t="s">
         <v>617</v>
       </c>
-      <c r="G372" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0598-2021</v>
+      <c r="G372" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H372" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18728,9 +18727,9 @@
       <c r="F373" t="s">
         <v>617</v>
       </c>
-      <c r="G373" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0599-2021</v>
+      <c r="G373" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H373" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18772,9 +18771,9 @@
       <c r="F374" t="s">
         <v>617</v>
       </c>
-      <c r="G374" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0600-2021</v>
+      <c r="G374" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H374" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18816,9 +18815,9 @@
       <c r="F375" t="s">
         <v>617</v>
       </c>
-      <c r="G375" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0601-2021</v>
+      <c r="G375" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H375" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18860,9 +18859,9 @@
       <c r="F376" t="s">
         <v>617</v>
       </c>
-      <c r="G376" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0602-2021</v>
+      <c r="G376" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H376" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18904,9 +18903,9 @@
       <c r="F377" t="s">
         <v>617</v>
       </c>
-      <c r="G377" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0603-2021</v>
+      <c r="G377" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H377" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18948,9 +18947,9 @@
       <c r="F378" t="s">
         <v>617</v>
       </c>
-      <c r="G378" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0604-2021</v>
+      <c r="G378" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H378" s="5" t="str">
         <f t="shared" si="16"/>
@@ -18992,9 +18991,9 @@
       <c r="F379" t="s">
         <v>617</v>
       </c>
-      <c r="G379" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0605-2021</v>
+      <c r="G379" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H379" s="5" t="str">
         <f t="shared" si="16"/>
@@ -19036,9 +19035,9 @@
       <c r="F380" t="s">
         <v>617</v>
       </c>
-      <c r="G380" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0606-2021</v>
+      <c r="G380" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H380" s="5" t="str">
         <f t="shared" si="16"/>
@@ -19080,9 +19079,9 @@
       <c r="F381" t="s">
         <v>617</v>
       </c>
-      <c r="G381" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0607-2021</v>
+      <c r="G381" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H381" s="5" t="str">
         <f t="shared" si="16"/>
@@ -19124,9 +19123,9 @@
       <c r="F382" t="s">
         <v>617</v>
       </c>
-      <c r="G382" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0608-2021</v>
+      <c r="G382" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H382" s="5" t="str">
         <f t="shared" si="16"/>
@@ -19168,9 +19167,9 @@
       <c r="F383" t="s">
         <v>617</v>
       </c>
-      <c r="G383" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0609-2021</v>
+      <c r="G383" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H383" s="5" t="str">
         <f t="shared" si="16"/>
@@ -19212,9 +19211,9 @@
       <c r="F384" t="s">
         <v>617</v>
       </c>
-      <c r="G384" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0610-2021</v>
+      <c r="G384" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H384" s="5" t="str">
         <f t="shared" si="16"/>
@@ -19256,9 +19255,9 @@
       <c r="F385" t="s">
         <v>617</v>
       </c>
-      <c r="G385" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0611-2021</v>
+      <c r="G385" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H385" s="5" t="str">
         <f t="shared" si="16"/>
@@ -19300,9 +19299,9 @@
       <c r="F386" t="s">
         <v>617</v>
       </c>
-      <c r="G386" t="str">
-        <f t="shared" si="15"/>
-        <v>ДТ-0612-2021</v>
+      <c r="G386" t="e">
+        <f t="shared" ca="1" si="15"/>
+        <v>#NAME?</v>
       </c>
       <c r="H386" s="5" t="str">
         <f t="shared" si="16"/>
@@ -19344,9 +19343,9 @@
       <c r="F387" t="s">
         <v>617</v>
       </c>
-      <c r="G387" t="str">
-        <f t="shared" ref="G387:G450" si="18">_xlfn.CONCAT(L387,"-",M387,N387,"-",O387)</f>
-        <v>ДТ-0613-2021</v>
+      <c r="G387" t="e">
+        <f t="shared" ref="G387:G450" ca="1" si="18">_xlfn.CONCAT(L387,"-",M387,N387,"-",O387)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H387" s="5" t="str">
         <f t="shared" ref="H387:H450" si="19">IF(RIGHT(B387)="ч","являлся","являлась")</f>
@@ -19388,9 +19387,9 @@
       <c r="F388" t="s">
         <v>617</v>
       </c>
-      <c r="G388" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0614-2021</v>
+      <c r="G388" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H388" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19432,9 +19431,9 @@
       <c r="F389" t="s">
         <v>617</v>
       </c>
-      <c r="G389" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0615-2021</v>
+      <c r="G389" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H389" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19476,9 +19475,9 @@
       <c r="F390" t="s">
         <v>617</v>
       </c>
-      <c r="G390" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0616-2021</v>
+      <c r="G390" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H390" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19520,9 +19519,9 @@
       <c r="F391" t="s">
         <v>617</v>
       </c>
-      <c r="G391" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0617-2021</v>
+      <c r="G391" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H391" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19564,9 +19563,9 @@
       <c r="F392" t="s">
         <v>617</v>
       </c>
-      <c r="G392" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0618-2021</v>
+      <c r="G392" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H392" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19608,9 +19607,9 @@
       <c r="F393" t="s">
         <v>617</v>
       </c>
-      <c r="G393" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0619-2021</v>
+      <c r="G393" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H393" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19652,9 +19651,9 @@
       <c r="F394" t="s">
         <v>617</v>
       </c>
-      <c r="G394" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0620-2021</v>
+      <c r="G394" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H394" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19696,9 +19695,9 @@
       <c r="F395" t="s">
         <v>617</v>
       </c>
-      <c r="G395" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0621-2021</v>
+      <c r="G395" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H395" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19740,9 +19739,9 @@
       <c r="F396" t="s">
         <v>617</v>
       </c>
-      <c r="G396" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0622-2021</v>
+      <c r="G396" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H396" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19784,9 +19783,9 @@
       <c r="F397" t="s">
         <v>617</v>
       </c>
-      <c r="G397" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0623-2021</v>
+      <c r="G397" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H397" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19828,9 +19827,9 @@
       <c r="F398" t="s">
         <v>617</v>
       </c>
-      <c r="G398" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0624-2021</v>
+      <c r="G398" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H398" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19872,9 +19871,9 @@
       <c r="F399" t="s">
         <v>617</v>
       </c>
-      <c r="G399" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0625-2021</v>
+      <c r="G399" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H399" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19916,9 +19915,9 @@
       <c r="F400" t="s">
         <v>617</v>
       </c>
-      <c r="G400" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0626-2021</v>
+      <c r="G400" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H400" s="5" t="str">
         <f t="shared" si="19"/>
@@ -19960,9 +19959,9 @@
       <c r="F401" t="s">
         <v>617</v>
       </c>
-      <c r="G401" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0627-2021</v>
+      <c r="G401" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H401" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20004,9 +20003,9 @@
       <c r="F402" t="s">
         <v>617</v>
       </c>
-      <c r="G402" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0628-2021</v>
+      <c r="G402" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H402" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20048,9 +20047,9 @@
       <c r="F403" t="s">
         <v>617</v>
       </c>
-      <c r="G403" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0629-2021</v>
+      <c r="G403" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H403" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20092,9 +20091,9 @@
       <c r="F404" t="s">
         <v>617</v>
       </c>
-      <c r="G404" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0630-2021</v>
+      <c r="G404" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H404" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20136,9 +20135,9 @@
       <c r="F405" t="s">
         <v>617</v>
       </c>
-      <c r="G405" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0631-2021</v>
+      <c r="G405" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H405" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20180,9 +20179,9 @@
       <c r="F406" t="s">
         <v>617</v>
       </c>
-      <c r="G406" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0632-2021</v>
+      <c r="G406" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H406" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20224,9 +20223,9 @@
       <c r="F407" t="s">
         <v>617</v>
       </c>
-      <c r="G407" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0633-2021</v>
+      <c r="G407" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H407" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20268,9 +20267,9 @@
       <c r="F408" t="s">
         <v>617</v>
       </c>
-      <c r="G408" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0634-2021</v>
+      <c r="G408" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H408" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20312,9 +20311,9 @@
       <c r="F409" t="s">
         <v>617</v>
       </c>
-      <c r="G409" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0635-2021</v>
+      <c r="G409" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H409" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20356,9 +20355,9 @@
       <c r="F410" t="s">
         <v>617</v>
       </c>
-      <c r="G410" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0636-2021</v>
+      <c r="G410" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H410" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20400,9 +20399,9 @@
       <c r="F411" t="s">
         <v>617</v>
       </c>
-      <c r="G411" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0637-2021</v>
+      <c r="G411" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H411" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20444,9 +20443,9 @@
       <c r="F412" t="s">
         <v>617</v>
       </c>
-      <c r="G412" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0638-2021</v>
+      <c r="G412" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H412" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20488,9 +20487,9 @@
       <c r="F413" t="s">
         <v>617</v>
       </c>
-      <c r="G413" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0639-2021</v>
+      <c r="G413" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H413" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20532,9 +20531,9 @@
       <c r="F414" t="s">
         <v>617</v>
       </c>
-      <c r="G414" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0640-2021</v>
+      <c r="G414" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H414" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20576,9 +20575,9 @@
       <c r="F415" t="s">
         <v>617</v>
       </c>
-      <c r="G415" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0641-2021</v>
+      <c r="G415" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H415" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20620,9 +20619,9 @@
       <c r="F416" t="s">
         <v>617</v>
       </c>
-      <c r="G416" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0642-2021</v>
+      <c r="G416" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H416" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20664,9 +20663,9 @@
       <c r="F417" t="s">
         <v>617</v>
       </c>
-      <c r="G417" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0643-2021</v>
+      <c r="G417" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H417" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20708,9 +20707,9 @@
       <c r="F418" t="s">
         <v>617</v>
       </c>
-      <c r="G418" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0644-2021</v>
+      <c r="G418" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H418" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20752,9 +20751,9 @@
       <c r="F419" t="s">
         <v>617</v>
       </c>
-      <c r="G419" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0645-2021</v>
+      <c r="G419" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H419" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20796,9 +20795,9 @@
       <c r="F420" t="s">
         <v>617</v>
       </c>
-      <c r="G420" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0646-2021</v>
+      <c r="G420" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H420" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20840,9 +20839,9 @@
       <c r="F421" t="s">
         <v>617</v>
       </c>
-      <c r="G421" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0647-2021</v>
+      <c r="G421" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H421" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20884,9 +20883,9 @@
       <c r="F422" t="s">
         <v>617</v>
       </c>
-      <c r="G422" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0648-2021</v>
+      <c r="G422" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H422" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20928,9 +20927,9 @@
       <c r="F423" t="s">
         <v>617</v>
       </c>
-      <c r="G423" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0649-2021</v>
+      <c r="G423" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H423" s="5" t="str">
         <f t="shared" si="19"/>
@@ -20972,9 +20971,9 @@
       <c r="F424" t="s">
         <v>617</v>
       </c>
-      <c r="G424" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0650-2021</v>
+      <c r="G424" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H424" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21016,9 +21015,9 @@
       <c r="F425" t="s">
         <v>617</v>
       </c>
-      <c r="G425" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0651-2021</v>
+      <c r="G425" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H425" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21060,9 +21059,9 @@
       <c r="F426" t="s">
         <v>617</v>
       </c>
-      <c r="G426" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0652-2021</v>
+      <c r="G426" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H426" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21104,9 +21103,9 @@
       <c r="F427" t="s">
         <v>617</v>
       </c>
-      <c r="G427" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0653-2021</v>
+      <c r="G427" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H427" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21148,9 +21147,9 @@
       <c r="F428" t="s">
         <v>617</v>
       </c>
-      <c r="G428" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0654-2021</v>
+      <c r="G428" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H428" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21192,9 +21191,9 @@
       <c r="F429" t="s">
         <v>617</v>
       </c>
-      <c r="G429" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0655-2021</v>
+      <c r="G429" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H429" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21236,9 +21235,9 @@
       <c r="F430" t="s">
         <v>617</v>
       </c>
-      <c r="G430" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0656-2021</v>
+      <c r="G430" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H430" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21280,9 +21279,9 @@
       <c r="F431" t="s">
         <v>617</v>
       </c>
-      <c r="G431" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0657-2021</v>
+      <c r="G431" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H431" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21324,9 +21323,9 @@
       <c r="F432" t="s">
         <v>617</v>
       </c>
-      <c r="G432" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0658-2021</v>
+      <c r="G432" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H432" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21368,9 +21367,9 @@
       <c r="F433" t="s">
         <v>617</v>
       </c>
-      <c r="G433" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0659-2021</v>
+      <c r="G433" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H433" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21412,9 +21411,9 @@
       <c r="F434" t="s">
         <v>617</v>
       </c>
-      <c r="G434" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0660-2021</v>
+      <c r="G434" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H434" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21456,9 +21455,9 @@
       <c r="F435" t="s">
         <v>617</v>
       </c>
-      <c r="G435" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0661-2021</v>
+      <c r="G435" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H435" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21500,9 +21499,9 @@
       <c r="F436" t="s">
         <v>617</v>
       </c>
-      <c r="G436" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0662-2021</v>
+      <c r="G436" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H436" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21544,9 +21543,9 @@
       <c r="F437" t="s">
         <v>617</v>
       </c>
-      <c r="G437" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0663-2021</v>
+      <c r="G437" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H437" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21588,9 +21587,9 @@
       <c r="F438" t="s">
         <v>617</v>
       </c>
-      <c r="G438" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0664-2021</v>
+      <c r="G438" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H438" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21632,9 +21631,9 @@
       <c r="F439" t="s">
         <v>617</v>
       </c>
-      <c r="G439" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0665-2021</v>
+      <c r="G439" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H439" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21676,9 +21675,9 @@
       <c r="F440" t="s">
         <v>617</v>
       </c>
-      <c r="G440" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0666-2021</v>
+      <c r="G440" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H440" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21720,9 +21719,9 @@
       <c r="F441" t="s">
         <v>617</v>
       </c>
-      <c r="G441" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0667-2021</v>
+      <c r="G441" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H441" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21764,9 +21763,9 @@
       <c r="F442" t="s">
         <v>617</v>
       </c>
-      <c r="G442" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0668-2021</v>
+      <c r="G442" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H442" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21808,9 +21807,9 @@
       <c r="F443" t="s">
         <v>617</v>
       </c>
-      <c r="G443" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0669-2021</v>
+      <c r="G443" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H443" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21852,9 +21851,9 @@
       <c r="F444" t="s">
         <v>617</v>
       </c>
-      <c r="G444" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0670-2021</v>
+      <c r="G444" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H444" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21896,9 +21895,9 @@
       <c r="F445" t="s">
         <v>617</v>
       </c>
-      <c r="G445" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0671-2021</v>
+      <c r="G445" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H445" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21940,9 +21939,9 @@
       <c r="F446" t="s">
         <v>617</v>
       </c>
-      <c r="G446" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0672-2021</v>
+      <c r="G446" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H446" s="5" t="str">
         <f t="shared" si="19"/>
@@ -21984,9 +21983,9 @@
       <c r="F447" t="s">
         <v>617</v>
       </c>
-      <c r="G447" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0673-2021</v>
+      <c r="G447" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H447" s="5" t="str">
         <f t="shared" si="19"/>
@@ -22028,9 +22027,9 @@
       <c r="F448" t="s">
         <v>617</v>
       </c>
-      <c r="G448" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0674-2021</v>
+      <c r="G448" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H448" s="5" t="str">
         <f t="shared" si="19"/>
@@ -22072,9 +22071,9 @@
       <c r="F449" t="s">
         <v>617</v>
       </c>
-      <c r="G449" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0675-2021</v>
+      <c r="G449" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H449" s="5" t="str">
         <f t="shared" si="19"/>
@@ -22116,9 +22115,9 @@
       <c r="F450" t="s">
         <v>617</v>
       </c>
-      <c r="G450" t="str">
-        <f t="shared" si="18"/>
-        <v>ДТ-0676-2021</v>
+      <c r="G450" t="e">
+        <f t="shared" ca="1" si="18"/>
+        <v>#NAME?</v>
       </c>
       <c r="H450" s="5" t="str">
         <f t="shared" si="19"/>
@@ -22160,9 +22159,9 @@
       <c r="F451" t="s">
         <v>617</v>
       </c>
-      <c r="G451" t="str">
-        <f t="shared" ref="G451:G514" si="21">_xlfn.CONCAT(L451,"-",M451,N451,"-",O451)</f>
-        <v>ДТ-0677-2021</v>
+      <c r="G451" t="e">
+        <f t="shared" ref="G451:G514" ca="1" si="21">_xlfn.CONCAT(L451,"-",M451,N451,"-",O451)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H451" s="5" t="str">
         <f t="shared" ref="H451:H514" si="22">IF(RIGHT(B451)="ч","являлся","являлась")</f>
@@ -22204,9 +22203,9 @@
       <c r="F452" t="s">
         <v>617</v>
       </c>
-      <c r="G452" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0678-2021</v>
+      <c r="G452" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H452" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22248,9 +22247,9 @@
       <c r="F453" t="s">
         <v>617</v>
       </c>
-      <c r="G453" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0679-2021</v>
+      <c r="G453" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H453" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22292,9 +22291,9 @@
       <c r="F454" t="s">
         <v>617</v>
       </c>
-      <c r="G454" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0680-2021</v>
+      <c r="G454" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H454" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22336,9 +22335,9 @@
       <c r="F455" t="s">
         <v>617</v>
       </c>
-      <c r="G455" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0681-2021</v>
+      <c r="G455" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H455" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22380,9 +22379,9 @@
       <c r="F456" t="s">
         <v>617</v>
       </c>
-      <c r="G456" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0682-2021</v>
+      <c r="G456" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H456" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22424,9 +22423,9 @@
       <c r="F457" t="s">
         <v>617</v>
       </c>
-      <c r="G457" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0683-2021</v>
+      <c r="G457" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H457" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22468,9 +22467,9 @@
       <c r="F458" t="s">
         <v>617</v>
       </c>
-      <c r="G458" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0684-2021</v>
+      <c r="G458" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H458" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22512,9 +22511,9 @@
       <c r="F459" t="s">
         <v>617</v>
       </c>
-      <c r="G459" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0685-2021</v>
+      <c r="G459" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H459" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22556,9 +22555,9 @@
       <c r="F460" t="s">
         <v>617</v>
       </c>
-      <c r="G460" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0686-2021</v>
+      <c r="G460" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H460" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22600,9 +22599,9 @@
       <c r="F461" t="s">
         <v>617</v>
       </c>
-      <c r="G461" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0687-2021</v>
+      <c r="G461" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H461" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22644,9 +22643,9 @@
       <c r="F462" t="s">
         <v>617</v>
       </c>
-      <c r="G462" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0688-2021</v>
+      <c r="G462" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H462" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22688,9 +22687,9 @@
       <c r="F463" t="s">
         <v>617</v>
       </c>
-      <c r="G463" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0689-2021</v>
+      <c r="G463" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H463" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22732,9 +22731,9 @@
       <c r="F464" t="s">
         <v>617</v>
       </c>
-      <c r="G464" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0690-2021</v>
+      <c r="G464" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H464" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22776,9 +22775,9 @@
       <c r="F465" t="s">
         <v>617</v>
       </c>
-      <c r="G465" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0691-2021</v>
+      <c r="G465" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H465" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22820,9 +22819,9 @@
       <c r="F466" t="s">
         <v>617</v>
       </c>
-      <c r="G466" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0692-2021</v>
+      <c r="G466" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H466" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22864,9 +22863,9 @@
       <c r="F467" t="s">
         <v>617</v>
       </c>
-      <c r="G467" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0693-2021</v>
+      <c r="G467" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H467" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22908,9 +22907,9 @@
       <c r="F468" t="s">
         <v>617</v>
       </c>
-      <c r="G468" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0694-2021</v>
+      <c r="G468" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H468" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22952,9 +22951,9 @@
       <c r="F469" t="s">
         <v>617</v>
       </c>
-      <c r="G469" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0695-2021</v>
+      <c r="G469" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H469" s="5" t="str">
         <f t="shared" si="22"/>
@@ -22996,9 +22995,9 @@
       <c r="F470" t="s">
         <v>617</v>
       </c>
-      <c r="G470" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0696-2021</v>
+      <c r="G470" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H470" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23040,9 +23039,9 @@
       <c r="F471" t="s">
         <v>617</v>
       </c>
-      <c r="G471" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0697-2021</v>
+      <c r="G471" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H471" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23084,9 +23083,9 @@
       <c r="F472" t="s">
         <v>615</v>
       </c>
-      <c r="G472" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0698-2021</v>
+      <c r="G472" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H472" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23128,9 +23127,9 @@
       <c r="F473" t="s">
         <v>615</v>
       </c>
-      <c r="G473" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0699-2021</v>
+      <c r="G473" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H473" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23172,9 +23171,9 @@
       <c r="F474" t="s">
         <v>615</v>
       </c>
-      <c r="G474" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0700-2021</v>
+      <c r="G474" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H474" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23216,9 +23215,9 @@
       <c r="F475" t="s">
         <v>615</v>
       </c>
-      <c r="G475" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0701-2021</v>
+      <c r="G475" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H475" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23260,9 +23259,9 @@
       <c r="F476" t="s">
         <v>615</v>
       </c>
-      <c r="G476" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0702-2021</v>
+      <c r="G476" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H476" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23304,9 +23303,9 @@
       <c r="F477" t="s">
         <v>615</v>
       </c>
-      <c r="G477" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0703-2021</v>
+      <c r="G477" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H477" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23348,9 +23347,9 @@
       <c r="F478" t="s">
         <v>615</v>
       </c>
-      <c r="G478" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0704-2021</v>
+      <c r="G478" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H478" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23392,9 +23391,9 @@
       <c r="F479" t="s">
         <v>615</v>
       </c>
-      <c r="G479" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0705-2021</v>
+      <c r="G479" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H479" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23436,9 +23435,9 @@
       <c r="F480" t="s">
         <v>615</v>
       </c>
-      <c r="G480" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0706-2021</v>
+      <c r="G480" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H480" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23480,9 +23479,9 @@
       <c r="F481" t="s">
         <v>615</v>
       </c>
-      <c r="G481" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0707-2021</v>
+      <c r="G481" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H481" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23524,9 +23523,9 @@
       <c r="F482" t="s">
         <v>615</v>
       </c>
-      <c r="G482" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0708-2021</v>
+      <c r="G482" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H482" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23568,9 +23567,9 @@
       <c r="F483" t="s">
         <v>615</v>
       </c>
-      <c r="G483" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0709-2021</v>
+      <c r="G483" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H483" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23612,9 +23611,9 @@
       <c r="F484" t="s">
         <v>615</v>
       </c>
-      <c r="G484" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0710-2021</v>
+      <c r="G484" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H484" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23656,9 +23655,9 @@
       <c r="F485" t="s">
         <v>615</v>
       </c>
-      <c r="G485" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0711-2021</v>
+      <c r="G485" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H485" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23700,9 +23699,9 @@
       <c r="F486" t="s">
         <v>615</v>
       </c>
-      <c r="G486" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0712-2021</v>
+      <c r="G486" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H486" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23744,9 +23743,9 @@
       <c r="F487" t="s">
         <v>615</v>
       </c>
-      <c r="G487" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0713-2021</v>
+      <c r="G487" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H487" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23788,9 +23787,9 @@
       <c r="F488" t="s">
         <v>615</v>
       </c>
-      <c r="G488" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0714-2021</v>
+      <c r="G488" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H488" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23832,9 +23831,9 @@
       <c r="F489" t="s">
         <v>615</v>
       </c>
-      <c r="G489" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0715-2021</v>
+      <c r="G489" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H489" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23876,9 +23875,9 @@
       <c r="F490" t="s">
         <v>615</v>
       </c>
-      <c r="G490" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0716-2021</v>
+      <c r="G490" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H490" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23920,9 +23919,9 @@
       <c r="F491" t="s">
         <v>615</v>
       </c>
-      <c r="G491" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0717-2021</v>
+      <c r="G491" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H491" s="5" t="str">
         <f t="shared" si="22"/>
@@ -23964,9 +23963,9 @@
       <c r="F492" t="s">
         <v>615</v>
       </c>
-      <c r="G492" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0718-2021</v>
+      <c r="G492" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H492" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24008,9 +24007,9 @@
       <c r="F493" t="s">
         <v>615</v>
       </c>
-      <c r="G493" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0719-2021</v>
+      <c r="G493" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H493" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24052,9 +24051,9 @@
       <c r="F494" t="s">
         <v>615</v>
       </c>
-      <c r="G494" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0720-2021</v>
+      <c r="G494" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H494" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24096,9 +24095,9 @@
       <c r="F495" t="s">
         <v>615</v>
       </c>
-      <c r="G495" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0721-2021</v>
+      <c r="G495" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H495" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24140,9 +24139,9 @@
       <c r="F496" t="s">
         <v>615</v>
       </c>
-      <c r="G496" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0722-2021</v>
+      <c r="G496" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H496" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24184,9 +24183,9 @@
       <c r="F497" t="s">
         <v>616</v>
       </c>
-      <c r="G497" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0723-2021</v>
+      <c r="G497" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H497" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24228,9 +24227,9 @@
       <c r="F498" t="s">
         <v>616</v>
       </c>
-      <c r="G498" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0724-2021</v>
+      <c r="G498" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H498" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24272,9 +24271,9 @@
       <c r="F499" t="s">
         <v>616</v>
       </c>
-      <c r="G499" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0725-2021</v>
+      <c r="G499" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H499" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24316,9 +24315,9 @@
       <c r="F500" t="s">
         <v>616</v>
       </c>
-      <c r="G500" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0726-2021</v>
+      <c r="G500" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H500" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24360,9 +24359,9 @@
       <c r="F501" t="s">
         <v>616</v>
       </c>
-      <c r="G501" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0727-2021</v>
+      <c r="G501" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H501" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24404,9 +24403,9 @@
       <c r="F502" t="s">
         <v>616</v>
       </c>
-      <c r="G502" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0728-2021</v>
+      <c r="G502" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H502" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24448,9 +24447,9 @@
       <c r="F503" t="s">
         <v>616</v>
       </c>
-      <c r="G503" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0729-2021</v>
+      <c r="G503" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H503" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24492,9 +24491,9 @@
       <c r="F504" t="s">
         <v>616</v>
       </c>
-      <c r="G504" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0730-2021</v>
+      <c r="G504" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H504" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24536,9 +24535,9 @@
       <c r="F505" t="s">
         <v>617</v>
       </c>
-      <c r="G505" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0731-2021</v>
+      <c r="G505" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H505" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24580,9 +24579,9 @@
       <c r="F506" t="s">
         <v>617</v>
       </c>
-      <c r="G506" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0732-2021</v>
+      <c r="G506" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H506" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24624,9 +24623,9 @@
       <c r="F507" t="s">
         <v>617</v>
       </c>
-      <c r="G507" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0733-2021</v>
+      <c r="G507" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H507" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24668,9 +24667,9 @@
       <c r="F508" t="s">
         <v>617</v>
       </c>
-      <c r="G508" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0734-2021</v>
+      <c r="G508" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H508" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24712,9 +24711,9 @@
       <c r="F509" t="s">
         <v>617</v>
       </c>
-      <c r="G509" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0735-2021</v>
+      <c r="G509" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H509" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24756,9 +24755,9 @@
       <c r="F510" t="s">
         <v>617</v>
       </c>
-      <c r="G510" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0736-2021</v>
+      <c r="G510" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H510" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24800,9 +24799,9 @@
       <c r="F511" t="s">
         <v>617</v>
       </c>
-      <c r="G511" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0737-2021</v>
+      <c r="G511" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H511" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24844,9 +24843,9 @@
       <c r="F512" t="s">
         <v>617</v>
       </c>
-      <c r="G512" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0738-2021</v>
+      <c r="G512" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H512" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24888,9 +24887,9 @@
       <c r="F513" t="s">
         <v>617</v>
       </c>
-      <c r="G513" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0739-2021</v>
+      <c r="G513" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H513" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24932,9 +24931,9 @@
       <c r="F514" t="s">
         <v>617</v>
       </c>
-      <c r="G514" t="str">
-        <f t="shared" si="21"/>
-        <v>ДТ-0740-2021</v>
+      <c r="G514" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="H514" s="5" t="str">
         <f t="shared" si="22"/>
@@ -24976,9 +24975,9 @@
       <c r="F515" t="s">
         <v>617</v>
       </c>
-      <c r="G515" t="str">
-        <f t="shared" ref="G515:G576" si="24">_xlfn.CONCAT(L515,"-",M515,N515,"-",O515)</f>
-        <v>ДТ-0741-2021</v>
+      <c r="G515" t="e">
+        <f t="shared" ref="G515:G576" ca="1" si="24">_xlfn.CONCAT(L515,"-",M515,N515,"-",O515)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H515" s="5" t="str">
         <f t="shared" ref="H515:H576" si="25">IF(RIGHT(B515)="ч","являлся","являлась")</f>
@@ -25020,9 +25019,9 @@
       <c r="F516" t="s">
         <v>617</v>
       </c>
-      <c r="G516" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0742-2021</v>
+      <c r="G516" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H516" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25064,9 +25063,9 @@
       <c r="F517" t="s">
         <v>617</v>
       </c>
-      <c r="G517" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0743-2021</v>
+      <c r="G517" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H517" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25108,9 +25107,9 @@
       <c r="F518" t="s">
         <v>617</v>
       </c>
-      <c r="G518" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0744-2021</v>
+      <c r="G518" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H518" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25152,9 +25151,9 @@
       <c r="F519" t="s">
         <v>617</v>
       </c>
-      <c r="G519" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0745-2021</v>
+      <c r="G519" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H519" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25196,9 +25195,9 @@
       <c r="F520" t="s">
         <v>617</v>
       </c>
-      <c r="G520" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0746-2021</v>
+      <c r="G520" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H520" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25240,9 +25239,9 @@
       <c r="F521" t="s">
         <v>617</v>
       </c>
-      <c r="G521" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0747-2021</v>
+      <c r="G521" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H521" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25284,9 +25283,9 @@
       <c r="F522" t="s">
         <v>617</v>
       </c>
-      <c r="G522" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0748-2021</v>
+      <c r="G522" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H522" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25328,9 +25327,9 @@
       <c r="F523" t="s">
         <v>617</v>
       </c>
-      <c r="G523" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0749-2021</v>
+      <c r="G523" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H523" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25372,9 +25371,9 @@
       <c r="F524" t="s">
         <v>617</v>
       </c>
-      <c r="G524" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0750-2021</v>
+      <c r="G524" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H524" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25416,9 +25415,9 @@
       <c r="F525" t="s">
         <v>617</v>
       </c>
-      <c r="G525" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0751-2021</v>
+      <c r="G525" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H525" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25460,9 +25459,9 @@
       <c r="F526" t="s">
         <v>617</v>
       </c>
-      <c r="G526" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0752-2021</v>
+      <c r="G526" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H526" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25504,9 +25503,9 @@
       <c r="F527" t="s">
         <v>617</v>
       </c>
-      <c r="G527" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0753-2021</v>
+      <c r="G527" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H527" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25548,9 +25547,9 @@
       <c r="F528" t="s">
         <v>617</v>
       </c>
-      <c r="G528" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0754-2021</v>
+      <c r="G528" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H528" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25592,9 +25591,9 @@
       <c r="F529" t="s">
         <v>617</v>
       </c>
-      <c r="G529" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0755-2021</v>
+      <c r="G529" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H529" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25636,9 +25635,9 @@
       <c r="F530" t="s">
         <v>617</v>
       </c>
-      <c r="G530" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0756-2021</v>
+      <c r="G530" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H530" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25680,9 +25679,9 @@
       <c r="F531" t="s">
         <v>617</v>
       </c>
-      <c r="G531" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0757-2021</v>
+      <c r="G531" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H531" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25724,9 +25723,9 @@
       <c r="F532" t="s">
         <v>617</v>
       </c>
-      <c r="G532" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0758-2021</v>
+      <c r="G532" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H532" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25768,9 +25767,9 @@
       <c r="F533" t="s">
         <v>617</v>
       </c>
-      <c r="G533" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0759-2021</v>
+      <c r="G533" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H533" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25812,9 +25811,9 @@
       <c r="F534" t="s">
         <v>617</v>
       </c>
-      <c r="G534" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0760-2021</v>
+      <c r="G534" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H534" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25856,9 +25855,9 @@
       <c r="F535" t="s">
         <v>617</v>
       </c>
-      <c r="G535" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0761-2021</v>
+      <c r="G535" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H535" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25900,9 +25899,9 @@
       <c r="F536" t="s">
         <v>617</v>
       </c>
-      <c r="G536" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0762-2021</v>
+      <c r="G536" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H536" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25944,9 +25943,9 @@
       <c r="F537" t="s">
         <v>617</v>
       </c>
-      <c r="G537" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0763-2021</v>
+      <c r="G537" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H537" s="5" t="str">
         <f t="shared" si="25"/>
@@ -25988,9 +25987,9 @@
       <c r="F538" t="s">
         <v>617</v>
       </c>
-      <c r="G538" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0764-2021</v>
+      <c r="G538" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H538" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26032,9 +26031,9 @@
       <c r="F539" t="s">
         <v>617</v>
       </c>
-      <c r="G539" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0765-2021</v>
+      <c r="G539" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H539" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26076,9 +26075,9 @@
       <c r="F540" t="s">
         <v>617</v>
       </c>
-      <c r="G540" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0766-2021</v>
+      <c r="G540" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H540" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26120,9 +26119,9 @@
       <c r="F541" t="s">
         <v>617</v>
       </c>
-      <c r="G541" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0767-2021</v>
+      <c r="G541" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H541" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26164,9 +26163,9 @@
       <c r="F542" t="s">
         <v>617</v>
       </c>
-      <c r="G542" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0768-2021</v>
+      <c r="G542" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H542" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26208,9 +26207,9 @@
       <c r="F543" t="s">
         <v>617</v>
       </c>
-      <c r="G543" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0769-2021</v>
+      <c r="G543" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H543" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26252,9 +26251,9 @@
       <c r="F544" t="s">
         <v>617</v>
       </c>
-      <c r="G544" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0770-2021</v>
+      <c r="G544" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H544" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26296,9 +26295,9 @@
       <c r="F545" t="s">
         <v>617</v>
       </c>
-      <c r="G545" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0771-2021</v>
+      <c r="G545" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H545" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26340,9 +26339,9 @@
       <c r="F546" t="s">
         <v>617</v>
       </c>
-      <c r="G546" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0772-2021</v>
+      <c r="G546" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H546" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26384,9 +26383,9 @@
       <c r="F547" t="s">
         <v>617</v>
       </c>
-      <c r="G547" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0773-2021</v>
+      <c r="G547" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H547" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26428,9 +26427,9 @@
       <c r="F548" t="s">
         <v>617</v>
       </c>
-      <c r="G548" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0774-2021</v>
+      <c r="G548" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H548" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26472,9 +26471,9 @@
       <c r="F549" t="s">
         <v>617</v>
       </c>
-      <c r="G549" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0775-2021</v>
+      <c r="G549" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H549" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26516,9 +26515,9 @@
       <c r="F550" t="s">
         <v>617</v>
       </c>
-      <c r="G550" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0776-2021</v>
+      <c r="G550" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H550" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26560,9 +26559,9 @@
       <c r="F551" t="s">
         <v>617</v>
       </c>
-      <c r="G551" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0777-2021</v>
+      <c r="G551" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H551" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26604,9 +26603,9 @@
       <c r="F552" t="s">
         <v>617</v>
       </c>
-      <c r="G552" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0778-2021</v>
+      <c r="G552" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H552" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26648,9 +26647,9 @@
       <c r="F553" t="s">
         <v>617</v>
       </c>
-      <c r="G553" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0779-2021</v>
+      <c r="G553" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H553" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26692,9 +26691,9 @@
       <c r="F554" t="s">
         <v>617</v>
       </c>
-      <c r="G554" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0780-2021</v>
+      <c r="G554" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H554" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26736,9 +26735,9 @@
       <c r="F555" t="s">
         <v>617</v>
       </c>
-      <c r="G555" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0781-2021</v>
+      <c r="G555" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H555" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26780,9 +26779,9 @@
       <c r="F556" t="s">
         <v>617</v>
       </c>
-      <c r="G556" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0782-2021</v>
+      <c r="G556" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H556" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26824,9 +26823,9 @@
       <c r="F557" t="s">
         <v>617</v>
       </c>
-      <c r="G557" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0783-2021</v>
+      <c r="G557" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H557" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26868,9 +26867,9 @@
       <c r="F558" t="s">
         <v>617</v>
       </c>
-      <c r="G558" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0784-2021</v>
+      <c r="G558" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H558" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26912,9 +26911,9 @@
       <c r="F559" t="s">
         <v>617</v>
       </c>
-      <c r="G559" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0785-2021</v>
+      <c r="G559" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H559" s="5" t="str">
         <f t="shared" si="25"/>
@@ -26956,9 +26955,9 @@
       <c r="F560" t="s">
         <v>617</v>
       </c>
-      <c r="G560" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0786-2021</v>
+      <c r="G560" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H560" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27000,9 +26999,9 @@
       <c r="F561" t="s">
         <v>617</v>
       </c>
-      <c r="G561" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0787-2021</v>
+      <c r="G561" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H561" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27044,9 +27043,9 @@
       <c r="F562" t="s">
         <v>617</v>
       </c>
-      <c r="G562" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0788-2021</v>
+      <c r="G562" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H562" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27088,9 +27087,9 @@
       <c r="F563" t="s">
         <v>617</v>
       </c>
-      <c r="G563" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0789-2021</v>
+      <c r="G563" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H563" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27132,9 +27131,9 @@
       <c r="F564" t="s">
         <v>617</v>
       </c>
-      <c r="G564" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0790-2021</v>
+      <c r="G564" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H564" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27176,9 +27175,9 @@
       <c r="F565" t="s">
         <v>617</v>
       </c>
-      <c r="G565" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0791-2021</v>
+      <c r="G565" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H565" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27220,9 +27219,9 @@
       <c r="F566" t="s">
         <v>617</v>
       </c>
-      <c r="G566" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0792-2021</v>
+      <c r="G566" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H566" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27264,9 +27263,9 @@
       <c r="F567" t="s">
         <v>617</v>
       </c>
-      <c r="G567" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0793-2021</v>
+      <c r="G567" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H567" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27308,9 +27307,9 @@
       <c r="F568" t="s">
         <v>617</v>
       </c>
-      <c r="G568" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0794-2021</v>
+      <c r="G568" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H568" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27352,9 +27351,9 @@
       <c r="F569" t="s">
         <v>617</v>
       </c>
-      <c r="G569" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0795-2021</v>
+      <c r="G569" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H569" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27396,9 +27395,9 @@
       <c r="F570" t="s">
         <v>617</v>
       </c>
-      <c r="G570" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0796-2021</v>
+      <c r="G570" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H570" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27440,9 +27439,9 @@
       <c r="F571" t="s">
         <v>617</v>
       </c>
-      <c r="G571" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0797-2021</v>
+      <c r="G571" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H571" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27484,9 +27483,9 @@
       <c r="F572" t="s">
         <v>617</v>
       </c>
-      <c r="G572" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0798-2021</v>
+      <c r="G572" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H572" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27528,9 +27527,9 @@
       <c r="F573" t="s">
         <v>617</v>
       </c>
-      <c r="G573" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0799-2021</v>
+      <c r="G573" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H573" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27572,9 +27571,9 @@
       <c r="F574" t="s">
         <v>617</v>
       </c>
-      <c r="G574" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0800-2021</v>
+      <c r="G574" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H574" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27616,9 +27615,9 @@
       <c r="F575" t="s">
         <v>617</v>
       </c>
-      <c r="G575" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0801-2021</v>
+      <c r="G575" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H575" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27660,9 +27659,9 @@
       <c r="F576" t="s">
         <v>617</v>
       </c>
-      <c r="G576" t="str">
-        <f t="shared" si="24"/>
-        <v>ДТ-0802-2021</v>
+      <c r="G576" t="e">
+        <f t="shared" ca="1" si="24"/>
+        <v>#NAME?</v>
       </c>
       <c r="H576" s="5" t="str">
         <f t="shared" si="25"/>
@@ -27695,7 +27694,7 @@
       <c r="B581" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F572">
+  <sortState ref="A2:F572">
     <sortCondition ref="E2:E572"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
